--- a/Definition/Tables/Principles_classification/Summary.xlsx
+++ b/Definition/Tables/Principles_classification/Summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\clepore\Downloads\SSI_principles\Definition\Tables\Principles_classification\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{058D34E8-C697-4791-8C73-0AC4CD022C6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B2498EF-FF56-4ECE-9FC3-FF9D146FE8D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10530" xr2:uid="{2F691BE0-650C-425B-994B-C0A8894E19E9}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="51">
   <si>
     <t>Existence</t>
   </si>
@@ -186,6 +186,12 @@
   </si>
   <si>
     <t>Adoption</t>
+  </si>
+  <si>
+    <t>Compliance</t>
+  </si>
+  <si>
+    <t>Privacy</t>
   </si>
 </sst>
 </file>
@@ -209,7 +215,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="17">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -236,12 +242,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -255,12 +255,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -306,8 +300,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="29">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -673,11 +673,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="129">
+  <cellXfs count="123">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -703,110 +729,104 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="15" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -1141,10 +1161,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99E35C44-6E0D-40C6-B4C0-7C252F6CDFEC}">
-  <dimension ref="A1:R16"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -1166,11 +1186,11 @@
     <col min="15" max="15" width="9.58984375" style="19" customWidth="1"/>
     <col min="16" max="16" width="8.6796875" style="19" customWidth="1"/>
     <col min="17" max="17" width="10.58984375" style="24" customWidth="1"/>
-    <col min="18" max="18" width="8.7265625" style="24"/>
-    <col min="19" max="16384" width="8.7265625" style="20"/>
+    <col min="18" max="20" width="8.7265625" style="24"/>
+    <col min="21" max="16384" width="8.7265625" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="8" customFormat="1" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+    <row r="1" spans="1:20" s="8" customFormat="1" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A1" s="1"/>
       <c r="B1" s="5"/>
       <c r="C1" s="6" t="s">
@@ -1221,8 +1241,14 @@
       <c r="R1" s="6" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="2" spans="1:18" s="13" customFormat="1" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="S1" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="T1" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" s="13" customFormat="1" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A2" s="2" t="s">
         <v>39</v>
       </c>
@@ -1251,8 +1277,10 @@
       <c r="P2" s="12"/>
       <c r="Q2" s="21"/>
       <c r="R2" s="21"/>
-    </row>
-    <row r="3" spans="1:18" s="16" customFormat="1" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="S2" s="21"/>
+      <c r="T2" s="21"/>
+    </row>
+    <row r="3" spans="1:20" s="16" customFormat="1" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A3" s="3" t="s">
         <v>40</v>
       </c>
@@ -1279,8 +1307,10 @@
       <c r="P3" s="15"/>
       <c r="Q3" s="22"/>
       <c r="R3" s="22"/>
-    </row>
-    <row r="4" spans="1:18" s="18" customFormat="1" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="S3" s="22"/>
+      <c r="T3" s="22"/>
+    </row>
+    <row r="4" spans="1:20" s="18" customFormat="1" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A4" s="3" t="s">
         <v>41</v>
       </c>
@@ -1313,8 +1343,10 @@
       <c r="P4" s="17"/>
       <c r="Q4" s="23"/>
       <c r="R4" s="23"/>
-    </row>
-    <row r="5" spans="1:18" s="16" customFormat="1" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="S4" s="23"/>
+      <c r="T4" s="23"/>
+    </row>
+    <row r="5" spans="1:20" s="16" customFormat="1" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
@@ -1345,8 +1377,10 @@
       <c r="R5" s="22">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:18" s="18" customFormat="1" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="S5" s="22"/>
+      <c r="T5" s="22"/>
+    </row>
+    <row r="6" spans="1:20" s="18" customFormat="1" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A6" s="3" t="s">
         <v>8</v>
       </c>
@@ -1377,8 +1411,10 @@
       <c r="R6" s="23">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:18" s="16" customFormat="1" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="S6" s="23"/>
+      <c r="T6" s="23"/>
+    </row>
+    <row r="7" spans="1:20" s="16" customFormat="1" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A7" s="3" t="s">
         <v>4</v>
       </c>
@@ -1413,8 +1449,10 @@
       <c r="R7" s="22">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" s="18" customFormat="1" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="S7" s="22"/>
+      <c r="T7" s="22"/>
+    </row>
+    <row r="8" spans="1:20" s="18" customFormat="1" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A8" s="3" t="s">
         <v>9</v>
       </c>
@@ -1424,26 +1462,50 @@
       <c r="E8" s="17"/>
       <c r="F8" s="17"/>
       <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="17"/>
+      <c r="H8" s="17">
+        <v>3</v>
+      </c>
+      <c r="I8" s="17">
+        <v>1</v>
+      </c>
       <c r="J8" s="17"/>
-      <c r="K8" s="17"/>
-      <c r="L8" s="17"/>
-      <c r="M8" s="17"/>
-      <c r="N8" s="17"/>
+      <c r="K8" s="17">
+        <v>1</v>
+      </c>
+      <c r="L8" s="17">
+        <v>2</v>
+      </c>
+      <c r="M8" s="17">
+        <v>1</v>
+      </c>
+      <c r="N8" s="17">
+        <v>1</v>
+      </c>
       <c r="O8" s="17"/>
       <c r="P8" s="17"/>
       <c r="Q8" s="23"/>
-      <c r="R8" s="23"/>
-    </row>
-    <row r="9" spans="1:18" s="16" customFormat="1" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="R8" s="23">
+        <v>1</v>
+      </c>
+      <c r="S8" s="23">
+        <v>1</v>
+      </c>
+      <c r="T8" s="23"/>
+    </row>
+    <row r="9" spans="1:20" s="16" customFormat="1" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A9" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B9" s="10"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
+      <c r="C9" s="15">
+        <v>5</v>
+      </c>
+      <c r="D9" s="15">
+        <v>1</v>
+      </c>
+      <c r="E9" s="15">
+        <v>1</v>
+      </c>
       <c r="F9" s="15"/>
       <c r="G9" s="15"/>
       <c r="H9" s="15"/>
@@ -1451,58 +1513,86 @@
       <c r="J9" s="15"/>
       <c r="K9" s="15"/>
       <c r="L9" s="15"/>
-      <c r="M9" s="15"/>
+      <c r="M9" s="15">
+        <v>1</v>
+      </c>
       <c r="N9" s="15"/>
       <c r="O9" s="15"/>
       <c r="P9" s="15"/>
       <c r="Q9" s="22"/>
       <c r="R9" s="22"/>
-    </row>
-    <row r="10" spans="1:18" s="128" customFormat="1" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A10" s="124" t="s">
+      <c r="S9" s="22"/>
+      <c r="T9" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" s="13" customFormat="1" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A10" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B10" s="125"/>
-      <c r="C10" s="126"/>
-      <c r="D10" s="126"/>
-      <c r="E10" s="126"/>
-      <c r="F10" s="126"/>
-      <c r="G10" s="126"/>
-      <c r="H10" s="126"/>
-      <c r="I10" s="126"/>
-      <c r="J10" s="126"/>
-      <c r="K10" s="126"/>
-      <c r="L10" s="126"/>
-      <c r="M10" s="126"/>
-      <c r="N10" s="126"/>
-      <c r="O10" s="126"/>
-      <c r="P10" s="126"/>
-      <c r="Q10" s="127"/>
-      <c r="R10" s="127"/>
-    </row>
-    <row r="11" spans="1:18" s="16" customFormat="1" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="B10" s="9"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12">
+        <v>1</v>
+      </c>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12">
+        <v>8</v>
+      </c>
+      <c r="K10" s="12"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="12"/>
+      <c r="N10" s="12"/>
+      <c r="O10" s="12"/>
+      <c r="P10" s="12"/>
+      <c r="Q10" s="21"/>
+      <c r="R10" s="21"/>
+      <c r="S10" s="21">
+        <v>1</v>
+      </c>
+      <c r="T10" s="21"/>
+    </row>
+    <row r="11" spans="1:20" s="16" customFormat="1" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A11" s="3" t="s">
         <v>43</v>
       </c>
       <c r="B11" s="10"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
+      <c r="C11" s="15">
+        <v>2</v>
+      </c>
+      <c r="D11" s="15">
+        <v>1</v>
+      </c>
+      <c r="E11" s="15">
+        <v>1</v>
+      </c>
       <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
+      <c r="G11" s="15">
+        <v>1</v>
+      </c>
       <c r="H11" s="15"/>
       <c r="I11" s="15"/>
-      <c r="J11" s="15"/>
+      <c r="J11" s="15">
+        <v>4</v>
+      </c>
       <c r="K11" s="15"/>
-      <c r="L11" s="15"/>
+      <c r="L11" s="15">
+        <v>1</v>
+      </c>
       <c r="M11" s="15"/>
       <c r="N11" s="15"/>
       <c r="O11" s="15"/>
       <c r="P11" s="15"/>
       <c r="Q11" s="22"/>
       <c r="R11" s="22"/>
-    </row>
-    <row r="12" spans="1:18" s="13" customFormat="1" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="S11" s="22"/>
+      <c r="T11" s="22"/>
+    </row>
+    <row r="12" spans="1:20" s="13" customFormat="1" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A12" s="2" t="s">
         <v>44</v>
       </c>
@@ -1513,18 +1603,28 @@
       <c r="F12" s="12"/>
       <c r="G12" s="12"/>
       <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
+      <c r="I12" s="12">
+        <v>3</v>
+      </c>
       <c r="J12" s="12"/>
       <c r="K12" s="12"/>
       <c r="L12" s="12"/>
       <c r="M12" s="12"/>
       <c r="N12" s="12"/>
-      <c r="O12" s="12"/>
-      <c r="P12" s="12"/>
+      <c r="O12" s="12">
+        <v>1</v>
+      </c>
+      <c r="P12" s="12">
+        <v>1</v>
+      </c>
       <c r="Q12" s="21"/>
-      <c r="R12" s="21"/>
-    </row>
-    <row r="13" spans="1:18" s="16" customFormat="1" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="R12" s="21">
+        <v>1</v>
+      </c>
+      <c r="S12" s="21"/>
+      <c r="T12" s="21"/>
+    </row>
+    <row r="13" spans="1:20" s="16" customFormat="1" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A13" s="3" t="s">
         <v>31</v>
       </c>
@@ -1535,40 +1635,60 @@
       <c r="F13" s="15"/>
       <c r="G13" s="15"/>
       <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
+      <c r="I13" s="15">
+        <v>3</v>
+      </c>
       <c r="J13" s="15"/>
       <c r="K13" s="15"/>
       <c r="L13" s="15"/>
       <c r="M13" s="15"/>
-      <c r="N13" s="15"/>
+      <c r="N13" s="15">
+        <v>1</v>
+      </c>
       <c r="O13" s="15"/>
       <c r="P13" s="15"/>
-      <c r="Q13" s="22"/>
-      <c r="R13" s="22"/>
-    </row>
-    <row r="14" spans="1:18" s="128" customFormat="1" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A14" s="124" t="s">
+      <c r="Q13" s="22">
+        <v>1</v>
+      </c>
+      <c r="R13" s="22">
+        <v>1</v>
+      </c>
+      <c r="S13" s="22"/>
+      <c r="T13" s="22"/>
+    </row>
+    <row r="14" spans="1:20" s="13" customFormat="1" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A14" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B14" s="125"/>
-      <c r="C14" s="126"/>
-      <c r="D14" s="126"/>
-      <c r="E14" s="126"/>
-      <c r="F14" s="126"/>
-      <c r="G14" s="126"/>
-      <c r="H14" s="126"/>
-      <c r="I14" s="126"/>
-      <c r="J14" s="126"/>
-      <c r="K14" s="126"/>
-      <c r="L14" s="126"/>
-      <c r="M14" s="126"/>
-      <c r="N14" s="126"/>
-      <c r="O14" s="126"/>
-      <c r="P14" s="126"/>
-      <c r="Q14" s="127"/>
-      <c r="R14" s="127"/>
-    </row>
-    <row r="15" spans="1:18" s="16" customFormat="1" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="B14" s="9"/>
+      <c r="C14" s="12">
+        <v>1</v>
+      </c>
+      <c r="D14" s="12">
+        <v>1</v>
+      </c>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="12"/>
+      <c r="L14" s="12"/>
+      <c r="M14" s="12">
+        <v>1</v>
+      </c>
+      <c r="N14" s="12"/>
+      <c r="O14" s="12">
+        <v>1</v>
+      </c>
+      <c r="P14" s="12"/>
+      <c r="Q14" s="21"/>
+      <c r="R14" s="21"/>
+      <c r="S14" s="21"/>
+      <c r="T14" s="21"/>
+    </row>
+    <row r="15" spans="1:20" s="16" customFormat="1" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A15" s="3" t="s">
         <v>46</v>
       </c>
@@ -1580,7 +1700,9 @@
       <c r="G15" s="15"/>
       <c r="H15" s="15"/>
       <c r="I15" s="15"/>
-      <c r="J15" s="15"/>
+      <c r="J15" s="15">
+        <v>2</v>
+      </c>
       <c r="K15" s="15"/>
       <c r="L15" s="15"/>
       <c r="M15" s="15"/>
@@ -1589,28 +1711,38 @@
       <c r="P15" s="15"/>
       <c r="Q15" s="22"/>
       <c r="R15" s="22"/>
-    </row>
-    <row r="16" spans="1:18" s="128" customFormat="1" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A16" s="124" t="s">
+      <c r="S15" s="22"/>
+      <c r="T15" s="22"/>
+    </row>
+    <row r="16" spans="1:20" s="13" customFormat="1" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A16" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B16" s="125"/>
-      <c r="C16" s="126"/>
-      <c r="D16" s="126"/>
-      <c r="E16" s="126"/>
-      <c r="F16" s="126"/>
-      <c r="G16" s="126"/>
-      <c r="H16" s="126"/>
-      <c r="I16" s="126"/>
-      <c r="J16" s="126"/>
-      <c r="K16" s="126"/>
-      <c r="L16" s="126"/>
-      <c r="M16" s="126"/>
-      <c r="N16" s="126"/>
-      <c r="O16" s="126"/>
-      <c r="P16" s="126"/>
-      <c r="Q16" s="127"/>
-      <c r="R16" s="127"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="12">
+        <v>1</v>
+      </c>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12">
+        <v>1</v>
+      </c>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12">
+        <v>1</v>
+      </c>
+      <c r="L16" s="12"/>
+      <c r="M16" s="12"/>
+      <c r="N16" s="12"/>
+      <c r="O16" s="12"/>
+      <c r="P16" s="12"/>
+      <c r="Q16" s="21"/>
+      <c r="R16" s="21"/>
+      <c r="S16" s="21"/>
+      <c r="T16" s="21"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1620,16 +1752,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A5D5A13-B5B1-4E36-BE94-4583350BDA04}">
-  <dimension ref="A1:Q13"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
     <col min="1" max="1" width="8.7265625" style="4"/>
-    <col min="2" max="2" width="8.7265625" style="11"/>
+    <col min="2" max="2" width="18.2265625" style="11" customWidth="1"/>
     <col min="3" max="3" width="12.453125" style="19" customWidth="1"/>
     <col min="4" max="4" width="11.6328125" style="19" customWidth="1"/>
     <col min="5" max="5" width="11.953125" style="19" customWidth="1"/>
@@ -1645,16 +1777,583 @@
     <col min="15" max="15" width="9.58984375" style="19" customWidth="1"/>
     <col min="16" max="16" width="8.6796875" style="19" customWidth="1"/>
     <col min="17" max="17" width="10.58984375" style="24" customWidth="1"/>
+    <col min="18" max="20" width="8.7265625" style="24"/>
+    <col min="21" max="16384" width="8.7265625" style="20"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" s="8" customFormat="1" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A1" s="1"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="106" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="N1" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="O1" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="P1" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="R1" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="S1" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="T1" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" s="48" customFormat="1" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A2" s="48" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="39">
+        <v>4</v>
+      </c>
+      <c r="D2" s="27">
+        <v>3</v>
+      </c>
+      <c r="E2" s="27">
+        <v>1</v>
+      </c>
+      <c r="F2" s="27">
+        <v>1</v>
+      </c>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="27"/>
+      <c r="M2" s="27"/>
+      <c r="N2" s="27"/>
+      <c r="O2" s="27"/>
+      <c r="P2" s="27"/>
+      <c r="Q2" s="49"/>
+      <c r="R2" s="49"/>
+      <c r="S2" s="49"/>
+      <c r="T2" s="49"/>
+    </row>
+    <row r="3" spans="1:20" s="25" customFormat="1" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A3" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="40">
+        <v>5</v>
+      </c>
+      <c r="D3" s="26">
+        <v>1</v>
+      </c>
+      <c r="E3" s="26">
+        <v>1</v>
+      </c>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="37"/>
+      <c r="K3" s="26"/>
+      <c r="L3" s="26"/>
+      <c r="M3" s="26">
+        <v>1</v>
+      </c>
+      <c r="N3" s="26"/>
+      <c r="O3" s="26"/>
+      <c r="P3" s="26"/>
+      <c r="Q3" s="28"/>
+      <c r="R3" s="28"/>
+      <c r="S3" s="28"/>
+      <c r="T3" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" s="25" customFormat="1" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A4" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="107">
+        <v>5</v>
+      </c>
+      <c r="D4" s="26">
+        <v>3</v>
+      </c>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26">
+        <v>1</v>
+      </c>
+      <c r="H4" s="26"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="37"/>
+      <c r="K4" s="26"/>
+      <c r="L4" s="26"/>
+      <c r="M4" s="26"/>
+      <c r="N4" s="26"/>
+      <c r="O4" s="26"/>
+      <c r="P4" s="26"/>
+      <c r="Q4" s="28"/>
+      <c r="R4" s="28"/>
+      <c r="S4" s="28"/>
+      <c r="T4" s="28"/>
+    </row>
+    <row r="5" spans="1:20" s="108" customFormat="1" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A5" s="108" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" s="109"/>
+      <c r="C5" s="109"/>
+      <c r="D5" s="109"/>
+      <c r="E5" s="109">
+        <v>1</v>
+      </c>
+      <c r="F5" s="109"/>
+      <c r="G5" s="109"/>
+      <c r="H5" s="109"/>
+      <c r="J5" s="110">
+        <v>8</v>
+      </c>
+      <c r="K5" s="109"/>
+      <c r="L5" s="109"/>
+      <c r="M5" s="109"/>
+      <c r="N5" s="109"/>
+      <c r="O5" s="109"/>
+      <c r="P5" s="109"/>
+      <c r="Q5" s="111"/>
+      <c r="R5" s="111"/>
+      <c r="S5" s="111">
+        <v>1</v>
+      </c>
+      <c r="T5" s="111"/>
+    </row>
+    <row r="6" spans="1:20" s="112" customFormat="1" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A6" s="112" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="113"/>
+      <c r="C6" s="113">
+        <v>1</v>
+      </c>
+      <c r="D6" s="113">
+        <v>1</v>
+      </c>
+      <c r="E6" s="113">
+        <v>1</v>
+      </c>
+      <c r="F6" s="113"/>
+      <c r="G6" s="113"/>
+      <c r="H6" s="113"/>
+      <c r="J6" s="114">
+        <v>5</v>
+      </c>
+      <c r="K6" s="113"/>
+      <c r="L6" s="113"/>
+      <c r="M6" s="113"/>
+      <c r="N6" s="113"/>
+      <c r="O6" s="113"/>
+      <c r="P6" s="113"/>
+      <c r="Q6" s="115"/>
+      <c r="R6" s="115">
+        <v>1</v>
+      </c>
+      <c r="S6" s="115"/>
+      <c r="T6" s="115"/>
+    </row>
+    <row r="7" spans="1:20" s="112" customFormat="1" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A7" s="112" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" s="113"/>
+      <c r="C7" s="113">
+        <v>2</v>
+      </c>
+      <c r="D7" s="113">
+        <v>1</v>
+      </c>
+      <c r="E7" s="113">
+        <v>1</v>
+      </c>
+      <c r="F7" s="113"/>
+      <c r="G7" s="113">
+        <v>1</v>
+      </c>
+      <c r="H7" s="117"/>
+      <c r="J7" s="116">
+        <v>4</v>
+      </c>
+      <c r="K7" s="113"/>
+      <c r="L7" s="113">
+        <v>1</v>
+      </c>
+      <c r="M7" s="113"/>
+      <c r="N7" s="113"/>
+      <c r="O7" s="113"/>
+      <c r="P7" s="113"/>
+      <c r="Q7" s="115"/>
+      <c r="R7" s="115"/>
+      <c r="S7" s="115"/>
+      <c r="T7" s="115"/>
+    </row>
+    <row r="8" spans="1:20" s="67" customFormat="1" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A8" s="67" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" s="68"/>
+      <c r="C8" s="91"/>
+      <c r="D8" s="68">
+        <v>3</v>
+      </c>
+      <c r="E8" s="68"/>
+      <c r="F8" s="68">
+        <v>1</v>
+      </c>
+      <c r="H8" s="95">
+        <v>3</v>
+      </c>
+      <c r="I8" s="68"/>
+      <c r="J8" s="91">
+        <v>2</v>
+      </c>
+      <c r="K8" s="68">
+        <v>1</v>
+      </c>
+      <c r="L8" s="68"/>
+      <c r="M8" s="68"/>
+      <c r="N8" s="68"/>
+      <c r="O8" s="68">
+        <v>1</v>
+      </c>
+      <c r="P8" s="68"/>
+      <c r="Q8" s="69"/>
+      <c r="R8" s="69"/>
+      <c r="S8" s="69"/>
+      <c r="T8" s="69"/>
+    </row>
+    <row r="9" spans="1:20" s="67" customFormat="1" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A9" s="67" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="68"/>
+      <c r="C9" s="68"/>
+      <c r="D9" s="68"/>
+      <c r="E9" s="68"/>
+      <c r="F9" s="68"/>
+      <c r="H9" s="118">
+        <v>3</v>
+      </c>
+      <c r="I9" s="68">
+        <v>3</v>
+      </c>
+      <c r="J9" s="68">
+        <v>1</v>
+      </c>
+      <c r="K9" s="68">
+        <v>1</v>
+      </c>
+      <c r="L9" s="68"/>
+      <c r="M9" s="68"/>
+      <c r="N9" s="68"/>
+      <c r="O9" s="68"/>
+      <c r="P9" s="68"/>
+      <c r="Q9" s="69"/>
+      <c r="R9" s="69">
+        <v>1</v>
+      </c>
+      <c r="S9" s="69"/>
+      <c r="T9" s="69"/>
+    </row>
+    <row r="10" spans="1:20" s="67" customFormat="1" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A10" s="67" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="68"/>
+      <c r="C10" s="68"/>
+      <c r="D10" s="68"/>
+      <c r="E10" s="68">
+        <v>1</v>
+      </c>
+      <c r="F10" s="68"/>
+      <c r="H10" s="122">
+        <v>2</v>
+      </c>
+      <c r="I10" s="91">
+        <v>1</v>
+      </c>
+      <c r="J10" s="68"/>
+      <c r="K10" s="68"/>
+      <c r="L10" s="68">
+        <v>2</v>
+      </c>
+      <c r="M10" s="68">
+        <v>1</v>
+      </c>
+      <c r="N10" s="68">
+        <v>1</v>
+      </c>
+      <c r="O10" s="68"/>
+      <c r="P10" s="68"/>
+      <c r="Q10" s="69"/>
+      <c r="R10" s="69">
+        <v>1</v>
+      </c>
+      <c r="S10" s="69"/>
+      <c r="T10" s="69"/>
+    </row>
+    <row r="11" spans="1:20" s="67" customFormat="1" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A11" s="67" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="68"/>
+      <c r="C11" s="68"/>
+      <c r="D11" s="68"/>
+      <c r="E11" s="68"/>
+      <c r="F11" s="68"/>
+      <c r="H11" s="96">
+        <v>3</v>
+      </c>
+      <c r="I11" s="68">
+        <v>1</v>
+      </c>
+      <c r="J11" s="68"/>
+      <c r="K11" s="68">
+        <v>1</v>
+      </c>
+      <c r="L11" s="68">
+        <v>2</v>
+      </c>
+      <c r="M11" s="68">
+        <v>1</v>
+      </c>
+      <c r="N11" s="68">
+        <v>1</v>
+      </c>
+      <c r="O11" s="68"/>
+      <c r="P11" s="68"/>
+      <c r="Q11" s="69"/>
+      <c r="R11" s="69">
+        <v>1</v>
+      </c>
+      <c r="S11" s="69">
+        <v>1</v>
+      </c>
+      <c r="T11" s="69"/>
+    </row>
+    <row r="12" spans="1:20" s="77" customFormat="1" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A12" s="77" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" s="36"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="36"/>
+      <c r="G12" s="36"/>
+      <c r="I12" s="42">
+        <v>3</v>
+      </c>
+      <c r="J12" s="36"/>
+      <c r="K12" s="36"/>
+      <c r="L12" s="36"/>
+      <c r="M12" s="36"/>
+      <c r="N12" s="36"/>
+      <c r="O12" s="36">
+        <v>1</v>
+      </c>
+      <c r="P12" s="36">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="119"/>
+      <c r="R12" s="119">
+        <v>1</v>
+      </c>
+      <c r="S12" s="119"/>
+      <c r="T12" s="119"/>
+    </row>
+    <row r="13" spans="1:20" s="29" customFormat="1" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A13" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="30"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="30"/>
+      <c r="I13" s="43">
+        <v>3</v>
+      </c>
+      <c r="J13" s="30"/>
+      <c r="K13" s="30"/>
+      <c r="L13" s="30"/>
+      <c r="M13" s="30"/>
+      <c r="N13" s="30">
+        <v>1</v>
+      </c>
+      <c r="O13" s="30"/>
+      <c r="P13" s="30"/>
+      <c r="Q13" s="31">
+        <v>1</v>
+      </c>
+      <c r="R13" s="31">
+        <v>1</v>
+      </c>
+      <c r="S13" s="31"/>
+      <c r="T13" s="31"/>
+    </row>
+    <row r="14" spans="1:20" s="120" customFormat="1" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A14" s="120" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14" s="79"/>
+      <c r="C14" s="79">
+        <v>1</v>
+      </c>
+      <c r="D14" s="79">
+        <v>1</v>
+      </c>
+      <c r="E14" s="79"/>
+      <c r="F14" s="79"/>
+      <c r="G14" s="79"/>
+      <c r="H14" s="79"/>
+      <c r="I14" s="79"/>
+      <c r="J14" s="79"/>
+      <c r="K14" s="79"/>
+      <c r="L14" s="79"/>
+      <c r="M14" s="79">
+        <v>1</v>
+      </c>
+      <c r="N14" s="79"/>
+      <c r="O14" s="79">
+        <v>1</v>
+      </c>
+      <c r="P14" s="79"/>
+      <c r="Q14" s="121"/>
+      <c r="R14" s="121"/>
+      <c r="S14" s="121"/>
+      <c r="T14" s="121"/>
+    </row>
+    <row r="15" spans="1:20" s="62" customFormat="1" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A15" s="62" t="s">
+        <v>46</v>
+      </c>
+      <c r="B15" s="63"/>
+      <c r="C15" s="63"/>
+      <c r="D15" s="63"/>
+      <c r="E15" s="63"/>
+      <c r="F15" s="63"/>
+      <c r="G15" s="63"/>
+      <c r="H15" s="63"/>
+      <c r="I15" s="63"/>
+      <c r="J15" s="63">
+        <v>2</v>
+      </c>
+      <c r="K15" s="63"/>
+      <c r="L15" s="63"/>
+      <c r="M15" s="63"/>
+      <c r="N15" s="63"/>
+      <c r="O15" s="63"/>
+      <c r="P15" s="63"/>
+      <c r="Q15" s="64"/>
+      <c r="R15" s="64"/>
+      <c r="S15" s="64"/>
+      <c r="T15" s="64"/>
+    </row>
+    <row r="16" spans="1:20" s="120" customFormat="1" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A16" s="120" t="s">
+        <v>47</v>
+      </c>
+      <c r="B16" s="79"/>
+      <c r="C16" s="79">
+        <v>1</v>
+      </c>
+      <c r="D16" s="79"/>
+      <c r="E16" s="79"/>
+      <c r="F16" s="79">
+        <v>1</v>
+      </c>
+      <c r="G16" s="79"/>
+      <c r="H16" s="79"/>
+      <c r="I16" s="79"/>
+      <c r="J16" s="79"/>
+      <c r="K16" s="79">
+        <v>1</v>
+      </c>
+      <c r="L16" s="79"/>
+      <c r="M16" s="79"/>
+      <c r="N16" s="79"/>
+      <c r="O16" s="79"/>
+      <c r="P16" s="79"/>
+      <c r="Q16" s="121"/>
+      <c r="R16" s="121"/>
+      <c r="S16" s="121"/>
+      <c r="T16" s="121"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D0380F8-8EF8-42F0-AD92-418BE1EF637C}">
+  <dimension ref="A1:Q56"/>
+  <sheetViews>
+    <sheetView zoomScale="94" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K27" sqref="K27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <cols>
+    <col min="1" max="1" width="8.7265625" style="47"/>
+    <col min="2" max="2" width="8.7265625" style="46"/>
+    <col min="3" max="16" width="8.7265625" style="19"/>
+    <col min="17" max="17" width="11.2265625" style="24" customWidth="1"/>
     <col min="18" max="16384" width="8.7265625" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="8" customFormat="1" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A1" s="1"/>
-      <c r="B1" s="5"/>
-      <c r="C1" s="6" t="s">
+    <row r="1" spans="1:17" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A1" s="56" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="57"/>
+      <c r="C1" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="44" t="s">
+      <c r="D1" s="35" t="s">
         <v>11</v>
       </c>
       <c r="E1" s="7" t="s">
@@ -1697,53 +2396,53 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="32" customFormat="1" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A2" s="32" t="s">
+    <row r="2" spans="1:17" s="50" customFormat="1" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A2" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="27"/>
+      <c r="C2" s="48">
+        <v>2</v>
+      </c>
+      <c r="D2" s="39">
         <v>3</v>
       </c>
-      <c r="B2" s="33"/>
-      <c r="C2" s="32">
-        <v>1</v>
-      </c>
-      <c r="D2" s="52">
+      <c r="E2" s="27">
+        <v>1</v>
+      </c>
+      <c r="F2" s="27">
+        <v>1</v>
+      </c>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="27"/>
+      <c r="M2" s="27"/>
+      <c r="N2" s="27"/>
+      <c r="O2" s="27"/>
+      <c r="P2" s="27"/>
+      <c r="Q2" s="49"/>
+    </row>
+    <row r="3" spans="1:17" s="50" customFormat="1" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A3" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="26"/>
+      <c r="C3" s="48">
         <v>3</v>
       </c>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33">
-        <v>1</v>
-      </c>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33">
-        <v>2</v>
-      </c>
-      <c r="I2" s="33"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="33"/>
-      <c r="L2" s="33"/>
-      <c r="M2" s="33"/>
-      <c r="N2" s="33"/>
-      <c r="O2" s="33"/>
-      <c r="P2" s="33"/>
-      <c r="Q2" s="34"/>
-    </row>
-    <row r="3" spans="1:17" s="25" customFormat="1" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A3" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="26"/>
-      <c r="C3" s="45">
-        <v>2</v>
-      </c>
-      <c r="D3" s="53">
-        <v>3</v>
-      </c>
-      <c r="E3" s="26">
-        <v>1</v>
-      </c>
+      <c r="D3" s="40">
+        <v>2</v>
+      </c>
+      <c r="E3" s="26"/>
       <c r="F3" s="26">
         <v>1</v>
       </c>
-      <c r="G3" s="26"/>
+      <c r="G3" s="26">
+        <v>1</v>
+      </c>
       <c r="H3" s="26"/>
       <c r="I3" s="26"/>
       <c r="J3" s="26"/>
@@ -1753,725 +2452,319 @@
       <c r="N3" s="26"/>
       <c r="O3" s="26"/>
       <c r="P3" s="26"/>
-      <c r="Q3" s="27"/>
-    </row>
-    <row r="4" spans="1:17" s="28" customFormat="1" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A4" s="28" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="54">
+      <c r="Q3" s="28"/>
+    </row>
+    <row r="4" spans="1:17" s="50" customFormat="1" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A4" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="30">
-        <v>2</v>
-      </c>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29">
-        <v>1</v>
-      </c>
-      <c r="G4" s="29">
-        <v>1</v>
-      </c>
-      <c r="H4" s="29"/>
-      <c r="I4" s="29"/>
-      <c r="J4" s="29"/>
-      <c r="K4" s="29"/>
-      <c r="L4" s="29"/>
-      <c r="M4" s="29"/>
-      <c r="N4" s="29"/>
-      <c r="O4" s="29"/>
-      <c r="P4" s="29"/>
-      <c r="Q4" s="31"/>
-    </row>
-    <row r="5" spans="1:17" s="28" customFormat="1" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A5" s="28" t="s">
+      <c r="B4" s="26"/>
+      <c r="C4" s="71">
+        <v>1</v>
+      </c>
+      <c r="D4" s="41">
+        <v>3</v>
+      </c>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26">
+        <v>1</v>
+      </c>
+      <c r="G4" s="26"/>
+      <c r="H4" s="26">
+        <v>2</v>
+      </c>
+      <c r="I4" s="26"/>
+      <c r="J4" s="26"/>
+      <c r="K4" s="26"/>
+      <c r="L4" s="26"/>
+      <c r="M4" s="26"/>
+      <c r="N4" s="26"/>
+      <c r="O4" s="26"/>
+      <c r="P4" s="26"/>
+      <c r="Q4" s="28"/>
+    </row>
+    <row r="5" spans="1:17" s="51" customFormat="1" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A5" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="32"/>
+      <c r="C5" s="44">
+        <v>5</v>
+      </c>
+      <c r="D5" s="38">
+        <v>1</v>
+      </c>
+      <c r="E5" s="33">
+        <v>1</v>
+      </c>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="33">
+        <v>1</v>
+      </c>
+      <c r="K5" s="33"/>
+      <c r="L5" s="33"/>
+      <c r="M5" s="33"/>
+      <c r="N5" s="33"/>
+      <c r="O5" s="33"/>
+      <c r="P5" s="33"/>
+      <c r="Q5" s="34"/>
+    </row>
+    <row r="6" spans="1:17" s="51" customFormat="1" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A6" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="55">
+      <c r="B6" s="32"/>
+      <c r="C6" s="45">
         <v>3</v>
       </c>
-      <c r="D5" s="29">
-        <v>1</v>
-      </c>
-      <c r="E5" s="29">
-        <v>1</v>
-      </c>
-      <c r="F5" s="29"/>
-      <c r="G5" s="29"/>
-      <c r="H5" s="29"/>
-      <c r="I5" s="29"/>
-      <c r="J5" s="29"/>
-      <c r="K5" s="29"/>
-      <c r="L5" s="29"/>
-      <c r="M5" s="29"/>
-      <c r="N5" s="29"/>
-      <c r="O5" s="29"/>
-      <c r="P5" s="29"/>
-      <c r="Q5" s="31"/>
-    </row>
-    <row r="6" spans="1:17" s="28" customFormat="1" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A6" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="56">
-        <v>5</v>
-      </c>
-      <c r="D6" s="29">
-        <v>1</v>
-      </c>
-      <c r="E6" s="29">
-        <v>1</v>
-      </c>
-      <c r="F6" s="29"/>
-      <c r="G6" s="29"/>
-      <c r="H6" s="47"/>
-      <c r="I6" s="29"/>
-      <c r="J6" s="29">
-        <v>1</v>
-      </c>
-      <c r="K6" s="29"/>
-      <c r="L6" s="29"/>
-      <c r="M6" s="29"/>
-      <c r="N6" s="29"/>
-      <c r="O6" s="29"/>
-      <c r="P6" s="29"/>
-      <c r="Q6" s="31"/>
-    </row>
-    <row r="7" spans="1:17" s="35" customFormat="1" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A7" s="35" t="s">
+      <c r="D6" s="33">
+        <v>1</v>
+      </c>
+      <c r="E6" s="33">
+        <v>1</v>
+      </c>
+      <c r="F6" s="33"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="33"/>
+      <c r="I6" s="33"/>
+      <c r="J6" s="73"/>
+      <c r="K6" s="33"/>
+      <c r="L6" s="33"/>
+      <c r="M6" s="33"/>
+      <c r="N6" s="33"/>
+      <c r="O6" s="33"/>
+      <c r="P6" s="33"/>
+      <c r="Q6" s="34"/>
+    </row>
+    <row r="7" spans="1:17" s="55" customFormat="1" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A7" s="52" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="53"/>
+      <c r="C7" s="72"/>
+      <c r="D7" s="53"/>
+      <c r="E7" s="53">
+        <v>1</v>
+      </c>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53"/>
+      <c r="H7" s="53">
+        <v>2</v>
+      </c>
+      <c r="I7" s="52"/>
+      <c r="J7" s="74"/>
+      <c r="K7" s="53"/>
+      <c r="L7" s="53">
+        <v>2</v>
+      </c>
+      <c r="M7" s="53">
+        <v>1</v>
+      </c>
+      <c r="N7" s="53">
+        <v>1</v>
+      </c>
+      <c r="O7" s="53"/>
+      <c r="P7" s="53"/>
+      <c r="Q7" s="54"/>
+    </row>
+    <row r="8" spans="1:17" s="55" customFormat="1" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A8" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="36"/>
-      <c r="C7" s="46"/>
-      <c r="D7" s="36"/>
-      <c r="E7" s="36"/>
-      <c r="F7" s="36"/>
-      <c r="H7" s="57">
-        <v>2</v>
-      </c>
-      <c r="I7" s="36">
-        <v>2</v>
-      </c>
-      <c r="J7" s="36">
-        <v>1</v>
-      </c>
-      <c r="K7" s="36">
-        <v>1</v>
-      </c>
-      <c r="L7" s="36"/>
-      <c r="M7" s="36"/>
-      <c r="N7" s="36"/>
-      <c r="O7" s="36"/>
-      <c r="P7" s="36"/>
-      <c r="Q7" s="37"/>
-    </row>
-    <row r="8" spans="1:17" s="35" customFormat="1" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A8" s="35" t="s">
+      <c r="B8" s="53"/>
+      <c r="C8" s="53"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="53"/>
+      <c r="F8" s="53"/>
+      <c r="G8" s="53"/>
+      <c r="H8" s="53">
+        <v>2</v>
+      </c>
+      <c r="I8" s="52">
+        <v>2</v>
+      </c>
+      <c r="J8" s="75">
+        <v>1</v>
+      </c>
+      <c r="K8" s="53">
+        <v>1</v>
+      </c>
+      <c r="L8" s="53"/>
+      <c r="M8" s="53"/>
+      <c r="N8" s="53"/>
+      <c r="O8" s="53"/>
+      <c r="P8" s="53"/>
+      <c r="Q8" s="54"/>
+    </row>
+    <row r="9" spans="1:17" s="55" customFormat="1" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A9" s="52" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="53"/>
+      <c r="C9" s="53"/>
+      <c r="D9" s="53"/>
+      <c r="E9" s="53"/>
+      <c r="F9" s="53"/>
+      <c r="G9" s="53"/>
+      <c r="H9" s="53">
+        <v>2</v>
+      </c>
+      <c r="I9" s="52"/>
+      <c r="J9" s="75"/>
+      <c r="K9" s="53">
+        <v>1</v>
+      </c>
+      <c r="L9" s="53">
+        <v>2</v>
+      </c>
+      <c r="M9" s="53">
+        <v>1</v>
+      </c>
+      <c r="N9" s="53">
+        <v>1</v>
+      </c>
+      <c r="O9" s="53"/>
+      <c r="P9" s="53"/>
+      <c r="Q9" s="54"/>
+    </row>
+    <row r="10" spans="1:17" s="55" customFormat="1" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A10" s="52" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="53"/>
+      <c r="C10" s="53"/>
+      <c r="D10" s="53"/>
+      <c r="E10" s="53">
+        <v>1</v>
+      </c>
+      <c r="F10" s="53"/>
+      <c r="G10" s="53"/>
+      <c r="H10" s="53"/>
+      <c r="I10" s="52"/>
+      <c r="J10" s="75">
         <v>4</v>
       </c>
-      <c r="B8" s="36"/>
-      <c r="C8" s="36"/>
-      <c r="D8" s="36"/>
-      <c r="E8" s="36">
-        <v>1</v>
-      </c>
-      <c r="F8" s="36"/>
-      <c r="H8" s="58">
-        <v>2</v>
-      </c>
-      <c r="I8" s="36"/>
-      <c r="J8" s="36"/>
-      <c r="K8" s="36"/>
-      <c r="L8" s="36">
-        <v>2</v>
-      </c>
-      <c r="M8" s="36">
-        <v>1</v>
-      </c>
-      <c r="N8" s="36">
-        <v>1</v>
-      </c>
-      <c r="O8" s="36"/>
-      <c r="P8" s="36"/>
-      <c r="Q8" s="37"/>
-    </row>
-    <row r="9" spans="1:17" s="35" customFormat="1" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A9" s="35" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="36"/>
-      <c r="C9" s="36"/>
-      <c r="D9" s="36"/>
-      <c r="E9" s="36"/>
-      <c r="F9" s="36"/>
-      <c r="H9" s="59">
-        <v>2</v>
-      </c>
-      <c r="I9" s="36"/>
-      <c r="J9" s="49"/>
-      <c r="K9" s="36">
-        <v>1</v>
-      </c>
-      <c r="L9" s="36">
-        <v>2</v>
-      </c>
-      <c r="M9" s="36">
-        <v>1</v>
-      </c>
-      <c r="N9" s="36">
-        <v>1</v>
-      </c>
-      <c r="O9" s="36"/>
-      <c r="P9" s="36"/>
-      <c r="Q9" s="37"/>
-    </row>
-    <row r="10" spans="1:17" s="38" customFormat="1" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A10" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="39"/>
-      <c r="C10" s="39"/>
-      <c r="D10" s="39"/>
-      <c r="E10" s="39">
-        <v>1</v>
-      </c>
-      <c r="F10" s="39"/>
-      <c r="G10" s="39"/>
-      <c r="H10" s="48"/>
-      <c r="J10" s="60">
-        <v>4</v>
-      </c>
-      <c r="K10" s="39"/>
-      <c r="L10" s="39"/>
-      <c r="M10" s="39">
-        <v>1</v>
-      </c>
-      <c r="N10" s="39"/>
-      <c r="O10" s="39"/>
-      <c r="P10" s="39"/>
-      <c r="Q10" s="40"/>
-    </row>
-    <row r="11" spans="1:17" s="38" customFormat="1" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A11" s="38" t="s">
+      <c r="K10" s="53"/>
+      <c r="L10" s="53"/>
+      <c r="M10" s="53">
+        <v>1</v>
+      </c>
+      <c r="N10" s="53"/>
+      <c r="O10" s="53"/>
+      <c r="P10" s="53"/>
+      <c r="Q10" s="54"/>
+    </row>
+    <row r="11" spans="1:17" s="55" customFormat="1" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A11" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="39"/>
-      <c r="C11" s="39">
-        <v>1</v>
-      </c>
-      <c r="D11" s="39"/>
-      <c r="E11" s="39">
-        <v>1</v>
-      </c>
-      <c r="F11" s="39"/>
-      <c r="G11" s="39"/>
-      <c r="H11" s="39"/>
-      <c r="I11" s="51"/>
-      <c r="J11" s="61">
+      <c r="B11" s="53"/>
+      <c r="C11" s="53">
+        <v>1</v>
+      </c>
+      <c r="D11" s="53"/>
+      <c r="E11" s="53">
+        <v>1</v>
+      </c>
+      <c r="F11" s="53"/>
+      <c r="G11" s="53"/>
+      <c r="H11" s="53"/>
+      <c r="I11" s="52"/>
+      <c r="J11" s="75">
         <v>3</v>
       </c>
-      <c r="K11" s="39"/>
-      <c r="L11" s="39"/>
-      <c r="M11" s="39"/>
-      <c r="N11" s="39"/>
-      <c r="O11" s="39"/>
-      <c r="P11" s="39"/>
-      <c r="Q11" s="40"/>
-    </row>
-    <row r="12" spans="1:17" s="41" customFormat="1" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A12" s="41" t="s">
+      <c r="K11" s="53"/>
+      <c r="L11" s="53"/>
+      <c r="M11" s="53"/>
+      <c r="N11" s="53"/>
+      <c r="O11" s="53"/>
+      <c r="P11" s="53"/>
+      <c r="Q11" s="54"/>
+    </row>
+    <row r="12" spans="1:17" s="55" customFormat="1" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A12" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="42"/>
-      <c r="C12" s="42"/>
-      <c r="D12" s="42"/>
-      <c r="E12" s="42"/>
-      <c r="F12" s="42"/>
-      <c r="G12" s="42"/>
-      <c r="I12" s="62">
-        <v>2</v>
-      </c>
-      <c r="J12" s="50"/>
-      <c r="K12" s="42"/>
-      <c r="L12" s="42"/>
-      <c r="M12" s="42"/>
-      <c r="N12" s="42">
-        <v>1</v>
-      </c>
-      <c r="O12" s="42">
-        <v>1</v>
-      </c>
-      <c r="P12" s="42">
-        <v>1</v>
-      </c>
-      <c r="Q12" s="43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" s="41" customFormat="1" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A13" s="41" t="s">
+      <c r="B12" s="53"/>
+      <c r="C12" s="53"/>
+      <c r="D12" s="53"/>
+      <c r="E12" s="53"/>
+      <c r="F12" s="53"/>
+      <c r="G12" s="53"/>
+      <c r="H12" s="53"/>
+      <c r="I12" s="52">
+        <v>2</v>
+      </c>
+      <c r="J12" s="75"/>
+      <c r="K12" s="53"/>
+      <c r="L12" s="53"/>
+      <c r="M12" s="53"/>
+      <c r="N12" s="53">
+        <v>1</v>
+      </c>
+      <c r="O12" s="53">
+        <v>1</v>
+      </c>
+      <c r="P12" s="53">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" s="55" customFormat="1" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A13" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="42"/>
-      <c r="C13" s="42"/>
-      <c r="D13" s="42"/>
-      <c r="E13" s="42"/>
-      <c r="F13" s="42"/>
-      <c r="G13" s="42"/>
-      <c r="I13" s="63">
-        <v>2</v>
-      </c>
-      <c r="J13" s="42"/>
-      <c r="K13" s="42"/>
-      <c r="L13" s="42"/>
-      <c r="M13" s="42"/>
-      <c r="N13" s="42"/>
-      <c r="O13" s="42"/>
-      <c r="P13" s="42"/>
-      <c r="Q13" s="43"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D0380F8-8EF8-42F0-AD92-418BE1EF637C}">
-  <dimension ref="A1:Q56"/>
-  <sheetViews>
-    <sheetView topLeftCell="A23" zoomScale="94" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K27" sqref="K27"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
-  <cols>
-    <col min="1" max="1" width="8.7265625" style="65"/>
-    <col min="2" max="2" width="8.7265625" style="64"/>
-    <col min="3" max="16" width="8.7265625" style="19"/>
-    <col min="17" max="17" width="11.2265625" style="24" customWidth="1"/>
-    <col min="18" max="16384" width="8.7265625" style="20"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:17" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A1" s="74" t="s">
-        <v>28</v>
-      </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D1" s="44" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="J1" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="K1" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="L1" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="M1" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="N1" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="O1" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="P1" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q1" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" s="68" customFormat="1" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A2" s="66" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="66">
-        <v>2</v>
-      </c>
-      <c r="D2" s="54">
-        <v>3</v>
-      </c>
-      <c r="E2" s="30">
-        <v>1</v>
-      </c>
-      <c r="F2" s="30">
-        <v>1</v>
-      </c>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
-      <c r="L2" s="30"/>
-      <c r="M2" s="30"/>
-      <c r="N2" s="30"/>
-      <c r="O2" s="30"/>
-      <c r="P2" s="30"/>
-      <c r="Q2" s="67"/>
-    </row>
-    <row r="3" spans="1:17" s="68" customFormat="1" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A3" s="28" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="29"/>
-      <c r="C3" s="66">
-        <v>3</v>
-      </c>
-      <c r="D3" s="55">
-        <v>2</v>
-      </c>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29">
-        <v>1</v>
-      </c>
-      <c r="G3" s="29">
-        <v>1</v>
-      </c>
-      <c r="H3" s="29"/>
-      <c r="I3" s="29"/>
-      <c r="J3" s="29"/>
-      <c r="K3" s="29"/>
-      <c r="L3" s="29"/>
-      <c r="M3" s="29"/>
-      <c r="N3" s="29"/>
-      <c r="O3" s="29"/>
-      <c r="P3" s="29"/>
-      <c r="Q3" s="31"/>
-    </row>
-    <row r="4" spans="1:17" s="68" customFormat="1" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A4" s="28" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="29"/>
-      <c r="C4" s="89">
-        <v>1</v>
-      </c>
-      <c r="D4" s="56">
-        <v>3</v>
-      </c>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29">
-        <v>1</v>
-      </c>
-      <c r="G4" s="29"/>
-      <c r="H4" s="29">
-        <v>2</v>
-      </c>
-      <c r="I4" s="29"/>
-      <c r="J4" s="29"/>
-      <c r="K4" s="29"/>
-      <c r="L4" s="29"/>
-      <c r="M4" s="29"/>
-      <c r="N4" s="29"/>
-      <c r="O4" s="29"/>
-      <c r="P4" s="29"/>
-      <c r="Q4" s="31"/>
-    </row>
-    <row r="5" spans="1:17" s="69" customFormat="1" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A5" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="38"/>
-      <c r="C5" s="60">
-        <v>5</v>
-      </c>
-      <c r="D5" s="48">
-        <v>1</v>
-      </c>
-      <c r="E5" s="39">
-        <v>1</v>
-      </c>
-      <c r="F5" s="39"/>
-      <c r="G5" s="39"/>
-      <c r="H5" s="39"/>
-      <c r="I5" s="39"/>
-      <c r="J5" s="39">
-        <v>1</v>
-      </c>
-      <c r="K5" s="39"/>
-      <c r="L5" s="39"/>
-      <c r="M5" s="39"/>
-      <c r="N5" s="39"/>
-      <c r="O5" s="39"/>
-      <c r="P5" s="39"/>
-      <c r="Q5" s="40"/>
-    </row>
-    <row r="6" spans="1:17" s="69" customFormat="1" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A6" s="38" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="38"/>
-      <c r="C6" s="61">
-        <v>3</v>
-      </c>
-      <c r="D6" s="39">
-        <v>1</v>
-      </c>
-      <c r="E6" s="39">
-        <v>1</v>
-      </c>
-      <c r="F6" s="39"/>
-      <c r="G6" s="39"/>
-      <c r="H6" s="39"/>
-      <c r="I6" s="39"/>
-      <c r="J6" s="91"/>
-      <c r="K6" s="39"/>
-      <c r="L6" s="39"/>
-      <c r="M6" s="39"/>
-      <c r="N6" s="39"/>
-      <c r="O6" s="39"/>
-      <c r="P6" s="39"/>
-      <c r="Q6" s="40"/>
-    </row>
-    <row r="7" spans="1:17" s="73" customFormat="1" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A7" s="70" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="71"/>
-      <c r="C7" s="90"/>
-      <c r="D7" s="71"/>
-      <c r="E7" s="71">
-        <v>1</v>
-      </c>
-      <c r="F7" s="71"/>
-      <c r="G7" s="71"/>
-      <c r="H7" s="71">
-        <v>2</v>
-      </c>
-      <c r="I7" s="70"/>
-      <c r="J7" s="92"/>
-      <c r="K7" s="71"/>
-      <c r="L7" s="71">
-        <v>2</v>
-      </c>
-      <c r="M7" s="71">
-        <v>1</v>
-      </c>
-      <c r="N7" s="71">
-        <v>1</v>
-      </c>
-      <c r="O7" s="71"/>
-      <c r="P7" s="71"/>
-      <c r="Q7" s="72"/>
-    </row>
-    <row r="8" spans="1:17" s="73" customFormat="1" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A8" s="70" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="71"/>
-      <c r="C8" s="71"/>
-      <c r="D8" s="71"/>
-      <c r="E8" s="71"/>
-      <c r="F8" s="71"/>
-      <c r="G8" s="71"/>
-      <c r="H8" s="71">
-        <v>2</v>
-      </c>
-      <c r="I8" s="70">
-        <v>2</v>
-      </c>
-      <c r="J8" s="93">
-        <v>1</v>
-      </c>
-      <c r="K8" s="71">
-        <v>1</v>
-      </c>
-      <c r="L8" s="71"/>
-      <c r="M8" s="71"/>
-      <c r="N8" s="71"/>
-      <c r="O8" s="71"/>
-      <c r="P8" s="71"/>
-      <c r="Q8" s="72"/>
-    </row>
-    <row r="9" spans="1:17" s="73" customFormat="1" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A9" s="70" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="71"/>
-      <c r="C9" s="71"/>
-      <c r="D9" s="71"/>
-      <c r="E9" s="71"/>
-      <c r="F9" s="71"/>
-      <c r="G9" s="71"/>
-      <c r="H9" s="71">
-        <v>2</v>
-      </c>
-      <c r="I9" s="70"/>
-      <c r="J9" s="93"/>
-      <c r="K9" s="71">
-        <v>1</v>
-      </c>
-      <c r="L9" s="71">
-        <v>2</v>
-      </c>
-      <c r="M9" s="71">
-        <v>1</v>
-      </c>
-      <c r="N9" s="71">
-        <v>1</v>
-      </c>
-      <c r="O9" s="71"/>
-      <c r="P9" s="71"/>
-      <c r="Q9" s="72"/>
-    </row>
-    <row r="10" spans="1:17" s="73" customFormat="1" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A10" s="70" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="71"/>
-      <c r="C10" s="71"/>
-      <c r="D10" s="71"/>
-      <c r="E10" s="71">
-        <v>1</v>
-      </c>
-      <c r="F10" s="71"/>
-      <c r="G10" s="71"/>
-      <c r="H10" s="71"/>
-      <c r="I10" s="70"/>
-      <c r="J10" s="93">
-        <v>4</v>
-      </c>
-      <c r="K10" s="71"/>
-      <c r="L10" s="71"/>
-      <c r="M10" s="71">
-        <v>1</v>
-      </c>
-      <c r="N10" s="71"/>
-      <c r="O10" s="71"/>
-      <c r="P10" s="71"/>
-      <c r="Q10" s="72"/>
-    </row>
-    <row r="11" spans="1:17" s="73" customFormat="1" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A11" s="70" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="71"/>
-      <c r="C11" s="71">
-        <v>1</v>
-      </c>
-      <c r="D11" s="71"/>
-      <c r="E11" s="71">
-        <v>1</v>
-      </c>
-      <c r="F11" s="71"/>
-      <c r="G11" s="71"/>
-      <c r="H11" s="71"/>
-      <c r="I11" s="70"/>
-      <c r="J11" s="93">
-        <v>3</v>
-      </c>
-      <c r="K11" s="71"/>
-      <c r="L11" s="71"/>
-      <c r="M11" s="71"/>
-      <c r="N11" s="71"/>
-      <c r="O11" s="71"/>
-      <c r="P11" s="71"/>
-      <c r="Q11" s="72"/>
-    </row>
-    <row r="12" spans="1:17" s="73" customFormat="1" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A12" s="70" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" s="71"/>
-      <c r="C12" s="71"/>
-      <c r="D12" s="71"/>
-      <c r="E12" s="71"/>
-      <c r="F12" s="71"/>
-      <c r="G12" s="71"/>
-      <c r="H12" s="71"/>
-      <c r="I12" s="70">
-        <v>2</v>
-      </c>
-      <c r="J12" s="93"/>
-      <c r="K12" s="71"/>
-      <c r="L12" s="71"/>
-      <c r="M12" s="71"/>
-      <c r="N12" s="71">
-        <v>1</v>
-      </c>
-      <c r="O12" s="71">
-        <v>1</v>
-      </c>
-      <c r="P12" s="71">
-        <v>1</v>
-      </c>
-      <c r="Q12" s="72">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" s="73" customFormat="1" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A13" s="70" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" s="71"/>
-      <c r="C13" s="71"/>
-      <c r="D13" s="71"/>
-      <c r="E13" s="71"/>
-      <c r="F13" s="71"/>
-      <c r="G13" s="71"/>
-      <c r="H13" s="71"/>
-      <c r="I13" s="70">
-        <v>2</v>
-      </c>
-      <c r="J13" s="94"/>
-      <c r="K13" s="71"/>
-      <c r="L13" s="71"/>
-      <c r="M13" s="71"/>
-      <c r="N13" s="71"/>
-      <c r="O13" s="71"/>
-      <c r="P13" s="71"/>
-      <c r="Q13" s="72"/>
-    </row>
-    <row r="14" spans="1:17" s="76" customFormat="1" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="B14" s="77"/>
-      <c r="C14" s="77"/>
-      <c r="D14" s="77"/>
-      <c r="E14" s="77"/>
-      <c r="F14" s="77"/>
-      <c r="G14" s="77"/>
-      <c r="H14" s="77"/>
-      <c r="I14" s="77"/>
-      <c r="J14" s="77"/>
-      <c r="K14" s="77"/>
-      <c r="L14" s="77"/>
-      <c r="M14" s="77"/>
-      <c r="N14" s="77"/>
-      <c r="O14" s="77"/>
-      <c r="P14" s="77"/>
-      <c r="Q14" s="78"/>
+      <c r="B13" s="53"/>
+      <c r="C13" s="53"/>
+      <c r="D13" s="53"/>
+      <c r="E13" s="53"/>
+      <c r="F13" s="53"/>
+      <c r="G13" s="53"/>
+      <c r="H13" s="53"/>
+      <c r="I13" s="52">
+        <v>2</v>
+      </c>
+      <c r="J13" s="76"/>
+      <c r="K13" s="53"/>
+      <c r="L13" s="53"/>
+      <c r="M13" s="53"/>
+      <c r="N13" s="53"/>
+      <c r="O13" s="53"/>
+      <c r="P13" s="53"/>
+      <c r="Q13" s="54"/>
+    </row>
+    <row r="14" spans="1:17" s="58" customFormat="1" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="B14" s="59"/>
+      <c r="C14" s="59"/>
+      <c r="D14" s="59"/>
+      <c r="E14" s="59"/>
+      <c r="F14" s="59"/>
+      <c r="G14" s="59"/>
+      <c r="H14" s="59"/>
+      <c r="I14" s="59"/>
+      <c r="J14" s="59"/>
+      <c r="K14" s="59"/>
+      <c r="L14" s="59"/>
+      <c r="M14" s="59"/>
+      <c r="N14" s="59"/>
+      <c r="O14" s="59"/>
+      <c r="P14" s="59"/>
+      <c r="Q14" s="60"/>
     </row>
     <row r="15" spans="1:17" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A15" s="74" t="s">
+      <c r="A15" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="75"/>
+      <c r="B15" s="57"/>
       <c r="C15" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D15" s="44" t="s">
+      <c r="D15" s="35" t="s">
         <v>11</v>
       </c>
       <c r="E15" s="7" t="s">
@@ -2514,375 +2807,375 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:17" s="68" customFormat="1" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A16" s="66" t="s">
+    <row r="16" spans="1:17" s="50" customFormat="1" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A16" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="B16" s="30"/>
-      <c r="C16" s="66">
-        <v>2</v>
-      </c>
-      <c r="D16" s="54">
+      <c r="B16" s="27"/>
+      <c r="C16" s="48">
+        <v>2</v>
+      </c>
+      <c r="D16" s="39">
         <v>3</v>
       </c>
-      <c r="E16" s="30">
-        <v>1</v>
-      </c>
-      <c r="F16" s="30">
-        <v>1</v>
-      </c>
-      <c r="G16" s="30"/>
-      <c r="H16" s="30"/>
-      <c r="I16" s="30"/>
-      <c r="J16" s="30"/>
-      <c r="K16" s="30"/>
-      <c r="L16" s="30"/>
-      <c r="M16" s="30"/>
-      <c r="N16" s="30"/>
-      <c r="O16" s="30"/>
-      <c r="P16" s="30"/>
-      <c r="Q16" s="67"/>
-    </row>
-    <row r="17" spans="1:17" s="68" customFormat="1" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A17" s="28" t="s">
-        <v>1</v>
-      </c>
-      <c r="B17" s="29"/>
-      <c r="C17" s="66">
+      <c r="E16" s="27">
+        <v>1</v>
+      </c>
+      <c r="F16" s="27">
+        <v>1</v>
+      </c>
+      <c r="G16" s="27"/>
+      <c r="H16" s="27"/>
+      <c r="I16" s="27"/>
+      <c r="J16" s="27"/>
+      <c r="K16" s="27"/>
+      <c r="L16" s="27"/>
+      <c r="M16" s="27"/>
+      <c r="N16" s="27"/>
+      <c r="O16" s="27"/>
+      <c r="P16" s="27"/>
+      <c r="Q16" s="49"/>
+    </row>
+    <row r="17" spans="1:17" s="50" customFormat="1" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A17" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="B17" s="26"/>
+      <c r="C17" s="48">
         <v>3</v>
       </c>
-      <c r="D17" s="55">
-        <v>2</v>
-      </c>
-      <c r="E17" s="29"/>
-      <c r="F17" s="29">
-        <v>1</v>
-      </c>
-      <c r="G17" s="29">
-        <v>1</v>
-      </c>
-      <c r="H17" s="29"/>
-      <c r="I17" s="29"/>
-      <c r="J17" s="29"/>
-      <c r="K17" s="29"/>
-      <c r="L17" s="29"/>
-      <c r="M17" s="29"/>
-      <c r="N17" s="29"/>
-      <c r="O17" s="29"/>
-      <c r="P17" s="29"/>
-      <c r="Q17" s="31"/>
-    </row>
-    <row r="18" spans="1:17" s="68" customFormat="1" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A18" s="28" t="s">
+      <c r="D17" s="40">
+        <v>2</v>
+      </c>
+      <c r="E17" s="26"/>
+      <c r="F17" s="26">
+        <v>1</v>
+      </c>
+      <c r="G17" s="26">
+        <v>1</v>
+      </c>
+      <c r="H17" s="26"/>
+      <c r="I17" s="26"/>
+      <c r="J17" s="26"/>
+      <c r="K17" s="26"/>
+      <c r="L17" s="26"/>
+      <c r="M17" s="26"/>
+      <c r="N17" s="26"/>
+      <c r="O17" s="26"/>
+      <c r="P17" s="26"/>
+      <c r="Q17" s="28"/>
+    </row>
+    <row r="18" spans="1:17" s="50" customFormat="1" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A18" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="B18" s="29"/>
-      <c r="C18" s="89">
-        <v>1</v>
-      </c>
-      <c r="D18" s="56">
+      <c r="B18" s="26"/>
+      <c r="C18" s="71">
+        <v>1</v>
+      </c>
+      <c r="D18" s="41">
         <v>3</v>
       </c>
-      <c r="E18" s="29"/>
-      <c r="F18" s="29">
-        <v>1</v>
-      </c>
-      <c r="G18" s="29"/>
-      <c r="H18" s="29">
-        <v>2</v>
-      </c>
-      <c r="I18" s="29"/>
-      <c r="J18" s="29"/>
-      <c r="K18" s="29"/>
-      <c r="L18" s="29"/>
-      <c r="M18" s="29"/>
-      <c r="N18" s="29"/>
-      <c r="O18" s="29"/>
-      <c r="P18" s="29"/>
-      <c r="Q18" s="31"/>
-    </row>
-    <row r="19" spans="1:17" s="69" customFormat="1" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A19" s="38" t="s">
+      <c r="E18" s="26"/>
+      <c r="F18" s="26">
+        <v>1</v>
+      </c>
+      <c r="G18" s="26"/>
+      <c r="H18" s="26">
+        <v>2</v>
+      </c>
+      <c r="I18" s="26"/>
+      <c r="J18" s="26"/>
+      <c r="K18" s="26"/>
+      <c r="L18" s="26"/>
+      <c r="M18" s="26"/>
+      <c r="N18" s="26"/>
+      <c r="O18" s="26"/>
+      <c r="P18" s="26"/>
+      <c r="Q18" s="28"/>
+    </row>
+    <row r="19" spans="1:17" s="51" customFormat="1" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A19" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="B19" s="38"/>
-      <c r="C19" s="60">
+      <c r="B19" s="32"/>
+      <c r="C19" s="44">
         <v>3</v>
       </c>
-      <c r="D19" s="48">
-        <v>1</v>
-      </c>
-      <c r="E19" s="39">
-        <v>1</v>
-      </c>
-      <c r="F19" s="39"/>
-      <c r="G19" s="39"/>
-      <c r="H19" s="39"/>
-      <c r="I19" s="39"/>
-      <c r="J19" s="39"/>
-      <c r="K19" s="39"/>
-      <c r="L19" s="39"/>
-      <c r="M19" s="39"/>
-      <c r="N19" s="39"/>
-      <c r="O19" s="39"/>
-      <c r="P19" s="39"/>
-      <c r="Q19" s="40"/>
-    </row>
-    <row r="20" spans="1:17" s="69" customFormat="1" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A20" s="38" t="s">
+      <c r="D19" s="38">
+        <v>1</v>
+      </c>
+      <c r="E19" s="33">
+        <v>1</v>
+      </c>
+      <c r="F19" s="33"/>
+      <c r="G19" s="33"/>
+      <c r="H19" s="33"/>
+      <c r="I19" s="33"/>
+      <c r="J19" s="33"/>
+      <c r="K19" s="33"/>
+      <c r="L19" s="33"/>
+      <c r="M19" s="33"/>
+      <c r="N19" s="33"/>
+      <c r="O19" s="33"/>
+      <c r="P19" s="33"/>
+      <c r="Q19" s="34"/>
+    </row>
+    <row r="20" spans="1:17" s="51" customFormat="1" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A20" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="B20" s="38"/>
-      <c r="C20" s="61">
+      <c r="B20" s="32"/>
+      <c r="C20" s="45">
         <v>5</v>
       </c>
-      <c r="D20" s="39">
-        <v>1</v>
-      </c>
-      <c r="E20" s="39">
-        <v>1</v>
-      </c>
-      <c r="F20" s="39"/>
-      <c r="G20" s="39"/>
-      <c r="H20" s="91"/>
-      <c r="I20" s="91"/>
-      <c r="J20" s="39">
-        <v>1</v>
-      </c>
-      <c r="K20" s="39"/>
-      <c r="L20" s="39"/>
-      <c r="M20" s="39"/>
-      <c r="N20" s="39"/>
-      <c r="O20" s="39"/>
-      <c r="P20" s="39"/>
-      <c r="Q20" s="40"/>
-    </row>
-    <row r="21" spans="1:17" s="73" customFormat="1" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A21" s="70" t="s">
+      <c r="D20" s="33">
+        <v>1</v>
+      </c>
+      <c r="E20" s="33">
+        <v>1</v>
+      </c>
+      <c r="F20" s="33"/>
+      <c r="G20" s="33"/>
+      <c r="H20" s="73"/>
+      <c r="I20" s="73"/>
+      <c r="J20" s="33">
+        <v>1</v>
+      </c>
+      <c r="K20" s="33"/>
+      <c r="L20" s="33"/>
+      <c r="M20" s="33"/>
+      <c r="N20" s="33"/>
+      <c r="O20" s="33"/>
+      <c r="P20" s="33"/>
+      <c r="Q20" s="34"/>
+    </row>
+    <row r="21" spans="1:17" s="55" customFormat="1" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A21" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="B21" s="71"/>
-      <c r="C21" s="90"/>
-      <c r="D21" s="71"/>
-      <c r="E21" s="71"/>
-      <c r="F21" s="71"/>
-      <c r="G21" s="70"/>
-      <c r="H21" s="100">
-        <v>2</v>
-      </c>
-      <c r="I21" s="101">
-        <v>2</v>
-      </c>
-      <c r="J21" s="71">
-        <v>1</v>
-      </c>
-      <c r="K21" s="71">
-        <v>1</v>
-      </c>
-      <c r="L21" s="71"/>
-      <c r="M21" s="71"/>
-      <c r="N21" s="71"/>
-      <c r="O21" s="71"/>
-      <c r="P21" s="71"/>
-      <c r="Q21" s="72"/>
-    </row>
-    <row r="22" spans="1:17" s="73" customFormat="1" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A22" s="70" t="s">
+      <c r="B21" s="53"/>
+      <c r="C21" s="72"/>
+      <c r="D21" s="53"/>
+      <c r="E21" s="53"/>
+      <c r="F21" s="53"/>
+      <c r="G21" s="52"/>
+      <c r="H21" s="82">
+        <v>2</v>
+      </c>
+      <c r="I21" s="83">
+        <v>2</v>
+      </c>
+      <c r="J21" s="53">
+        <v>1</v>
+      </c>
+      <c r="K21" s="53">
+        <v>1</v>
+      </c>
+      <c r="L21" s="53"/>
+      <c r="M21" s="53"/>
+      <c r="N21" s="53"/>
+      <c r="O21" s="53"/>
+      <c r="P21" s="53"/>
+      <c r="Q21" s="54"/>
+    </row>
+    <row r="22" spans="1:17" s="55" customFormat="1" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A22" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="B22" s="71"/>
-      <c r="C22" s="71"/>
-      <c r="D22" s="71"/>
-      <c r="E22" s="71">
-        <v>1</v>
-      </c>
-      <c r="F22" s="71"/>
-      <c r="G22" s="70"/>
-      <c r="H22" s="102">
-        <v>2</v>
-      </c>
-      <c r="I22" s="103"/>
-      <c r="J22" s="71"/>
-      <c r="K22" s="71"/>
-      <c r="L22" s="71">
-        <v>2</v>
-      </c>
-      <c r="M22" s="71">
-        <v>1</v>
-      </c>
-      <c r="N22" s="71">
-        <v>1</v>
-      </c>
-      <c r="O22" s="71"/>
-      <c r="P22" s="71"/>
-      <c r="Q22" s="72"/>
-    </row>
-    <row r="23" spans="1:17" s="73" customFormat="1" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A23" s="70" t="s">
+      <c r="B22" s="53"/>
+      <c r="C22" s="53"/>
+      <c r="D22" s="53"/>
+      <c r="E22" s="53">
+        <v>1</v>
+      </c>
+      <c r="F22" s="53"/>
+      <c r="G22" s="52"/>
+      <c r="H22" s="84">
+        <v>2</v>
+      </c>
+      <c r="I22" s="85"/>
+      <c r="J22" s="53"/>
+      <c r="K22" s="53"/>
+      <c r="L22" s="53">
+        <v>2</v>
+      </c>
+      <c r="M22" s="53">
+        <v>1</v>
+      </c>
+      <c r="N22" s="53">
+        <v>1</v>
+      </c>
+      <c r="O22" s="53"/>
+      <c r="P22" s="53"/>
+      <c r="Q22" s="54"/>
+    </row>
+    <row r="23" spans="1:17" s="55" customFormat="1" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A23" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="B23" s="71"/>
-      <c r="C23" s="71"/>
-      <c r="D23" s="71"/>
-      <c r="E23" s="71"/>
-      <c r="F23" s="71"/>
-      <c r="G23" s="70"/>
-      <c r="H23" s="102">
-        <v>2</v>
-      </c>
-      <c r="I23" s="103"/>
-      <c r="J23" s="71"/>
-      <c r="K23" s="71">
-        <v>1</v>
-      </c>
-      <c r="L23" s="71">
-        <v>2</v>
-      </c>
-      <c r="M23" s="71">
-        <v>1</v>
-      </c>
-      <c r="N23" s="71">
-        <v>1</v>
-      </c>
-      <c r="O23" s="71"/>
-      <c r="P23" s="71"/>
-      <c r="Q23" s="72"/>
-    </row>
-    <row r="24" spans="1:17" s="73" customFormat="1" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A24" s="70" t="s">
+      <c r="B23" s="53"/>
+      <c r="C23" s="53"/>
+      <c r="D23" s="53"/>
+      <c r="E23" s="53"/>
+      <c r="F23" s="53"/>
+      <c r="G23" s="52"/>
+      <c r="H23" s="84">
+        <v>2</v>
+      </c>
+      <c r="I23" s="85"/>
+      <c r="J23" s="53"/>
+      <c r="K23" s="53">
+        <v>1</v>
+      </c>
+      <c r="L23" s="53">
+        <v>2</v>
+      </c>
+      <c r="M23" s="53">
+        <v>1</v>
+      </c>
+      <c r="N23" s="53">
+        <v>1</v>
+      </c>
+      <c r="O23" s="53"/>
+      <c r="P23" s="53"/>
+      <c r="Q23" s="54"/>
+    </row>
+    <row r="24" spans="1:17" s="55" customFormat="1" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A24" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="B24" s="71"/>
-      <c r="C24" s="71"/>
-      <c r="D24" s="71"/>
-      <c r="E24" s="71"/>
-      <c r="F24" s="71"/>
-      <c r="G24" s="70"/>
-      <c r="H24" s="102"/>
-      <c r="I24" s="103">
-        <v>2</v>
-      </c>
-      <c r="J24" s="71"/>
-      <c r="K24" s="71"/>
-      <c r="L24" s="71"/>
-      <c r="M24" s="71"/>
-      <c r="N24" s="71">
-        <v>1</v>
-      </c>
-      <c r="O24" s="71">
-        <v>1</v>
-      </c>
-      <c r="P24" s="71">
-        <v>1</v>
-      </c>
-      <c r="Q24" s="72">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" s="73" customFormat="1" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A25" s="70" t="s">
+      <c r="B24" s="53"/>
+      <c r="C24" s="53"/>
+      <c r="D24" s="53"/>
+      <c r="E24" s="53"/>
+      <c r="F24" s="53"/>
+      <c r="G24" s="52"/>
+      <c r="H24" s="84"/>
+      <c r="I24" s="85">
+        <v>2</v>
+      </c>
+      <c r="J24" s="53"/>
+      <c r="K24" s="53"/>
+      <c r="L24" s="53"/>
+      <c r="M24" s="53"/>
+      <c r="N24" s="53">
+        <v>1</v>
+      </c>
+      <c r="O24" s="53">
+        <v>1</v>
+      </c>
+      <c r="P24" s="53">
+        <v>1</v>
+      </c>
+      <c r="Q24" s="54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" s="55" customFormat="1" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A25" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="B25" s="71"/>
-      <c r="C25" s="71"/>
-      <c r="D25" s="71"/>
-      <c r="E25" s="71"/>
-      <c r="F25" s="71"/>
-      <c r="G25" s="70"/>
-      <c r="H25" s="104"/>
-      <c r="I25" s="105">
-        <v>2</v>
-      </c>
-      <c r="J25" s="96"/>
-      <c r="K25" s="71"/>
-      <c r="L25" s="71"/>
-      <c r="M25" s="71"/>
-      <c r="N25" s="71"/>
-      <c r="O25" s="71"/>
-      <c r="P25" s="71"/>
-      <c r="Q25" s="72"/>
-    </row>
-    <row r="26" spans="1:17" s="79" customFormat="1" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A26" s="35" t="s">
+      <c r="B25" s="53"/>
+      <c r="C25" s="53"/>
+      <c r="D25" s="53"/>
+      <c r="E25" s="53"/>
+      <c r="F25" s="53"/>
+      <c r="G25" s="52"/>
+      <c r="H25" s="86"/>
+      <c r="I25" s="87">
+        <v>2</v>
+      </c>
+      <c r="J25" s="78"/>
+      <c r="K25" s="53"/>
+      <c r="L25" s="53"/>
+      <c r="M25" s="53"/>
+      <c r="N25" s="53"/>
+      <c r="O25" s="53"/>
+      <c r="P25" s="53"/>
+      <c r="Q25" s="54"/>
+    </row>
+    <row r="26" spans="1:17" s="61" customFormat="1" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A26" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="B26" s="36"/>
-      <c r="C26" s="36"/>
-      <c r="D26" s="36"/>
-      <c r="E26" s="36">
-        <v>1</v>
-      </c>
-      <c r="F26" s="36"/>
-      <c r="G26" s="36"/>
-      <c r="H26" s="46"/>
-      <c r="I26" s="95"/>
-      <c r="J26" s="57">
+      <c r="B26" s="30"/>
+      <c r="C26" s="30"/>
+      <c r="D26" s="30"/>
+      <c r="E26" s="30">
+        <v>1</v>
+      </c>
+      <c r="F26" s="30"/>
+      <c r="G26" s="30"/>
+      <c r="H26" s="36"/>
+      <c r="I26" s="77"/>
+      <c r="J26" s="42">
         <v>4</v>
       </c>
-      <c r="K26" s="36"/>
-      <c r="L26" s="36"/>
-      <c r="M26" s="36">
-        <v>1</v>
-      </c>
-      <c r="N26" s="36"/>
-      <c r="O26" s="36"/>
-      <c r="P26" s="36"/>
-      <c r="Q26" s="37"/>
-    </row>
-    <row r="27" spans="1:17" s="79" customFormat="1" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A27" s="35" t="s">
+      <c r="K26" s="30"/>
+      <c r="L26" s="30"/>
+      <c r="M26" s="30">
+        <v>1</v>
+      </c>
+      <c r="N26" s="30"/>
+      <c r="O26" s="30"/>
+      <c r="P26" s="30"/>
+      <c r="Q26" s="31"/>
+    </row>
+    <row r="27" spans="1:17" s="61" customFormat="1" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A27" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="B27" s="36"/>
-      <c r="C27" s="36">
-        <v>1</v>
-      </c>
-      <c r="D27" s="36"/>
-      <c r="E27" s="36">
-        <v>1</v>
-      </c>
-      <c r="F27" s="36"/>
-      <c r="G27" s="36"/>
-      <c r="H27" s="36"/>
-      <c r="I27" s="35"/>
-      <c r="J27" s="59">
+      <c r="B27" s="30"/>
+      <c r="C27" s="30">
+        <v>1</v>
+      </c>
+      <c r="D27" s="30"/>
+      <c r="E27" s="30">
+        <v>1</v>
+      </c>
+      <c r="F27" s="30"/>
+      <c r="G27" s="30"/>
+      <c r="H27" s="30"/>
+      <c r="I27" s="29"/>
+      <c r="J27" s="43">
         <v>3</v>
       </c>
-      <c r="K27" s="36"/>
-      <c r="L27" s="36"/>
-      <c r="M27" s="36"/>
-      <c r="N27" s="36"/>
-      <c r="O27" s="36"/>
-      <c r="P27" s="36"/>
-      <c r="Q27" s="37"/>
-    </row>
-    <row r="28" spans="1:17" s="76" customFormat="1" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="B28" s="77"/>
-      <c r="C28" s="77"/>
-      <c r="D28" s="77"/>
-      <c r="E28" s="77"/>
-      <c r="F28" s="77"/>
-      <c r="G28" s="77"/>
-      <c r="H28" s="77"/>
-      <c r="I28" s="77"/>
-      <c r="J28" s="77"/>
-      <c r="K28" s="77"/>
-      <c r="L28" s="77"/>
-      <c r="M28" s="77"/>
-      <c r="N28" s="77"/>
-      <c r="O28" s="77"/>
-      <c r="P28" s="77"/>
-      <c r="Q28" s="78"/>
+      <c r="K27" s="30"/>
+      <c r="L27" s="30"/>
+      <c r="M27" s="30"/>
+      <c r="N27" s="30"/>
+      <c r="O27" s="30"/>
+      <c r="P27" s="30"/>
+      <c r="Q27" s="31"/>
+    </row>
+    <row r="28" spans="1:17" s="58" customFormat="1" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="B28" s="59"/>
+      <c r="C28" s="59"/>
+      <c r="D28" s="59"/>
+      <c r="E28" s="59"/>
+      <c r="F28" s="59"/>
+      <c r="G28" s="59"/>
+      <c r="H28" s="59"/>
+      <c r="I28" s="59"/>
+      <c r="J28" s="59"/>
+      <c r="K28" s="59"/>
+      <c r="L28" s="59"/>
+      <c r="M28" s="59"/>
+      <c r="N28" s="59"/>
+      <c r="O28" s="59"/>
+      <c r="P28" s="59"/>
+      <c r="Q28" s="60"/>
     </row>
     <row r="29" spans="1:17" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A29" s="74" t="s">
+      <c r="A29" s="56" t="s">
         <v>26</v>
       </c>
-      <c r="B29" s="75"/>
+      <c r="B29" s="57"/>
       <c r="C29" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D29" s="44" t="s">
+      <c r="D29" s="35" t="s">
         <v>11</v>
       </c>
       <c r="E29" s="7" t="s">
@@ -2925,375 +3218,375 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:17" s="68" customFormat="1" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A30" s="66" t="s">
+    <row r="30" spans="1:17" s="50" customFormat="1" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A30" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="30"/>
-      <c r="C30" s="66">
-        <v>2</v>
-      </c>
-      <c r="D30" s="54">
+      <c r="B30" s="27"/>
+      <c r="C30" s="48">
+        <v>2</v>
+      </c>
+      <c r="D30" s="39">
         <v>3</v>
       </c>
-      <c r="E30" s="30">
-        <v>1</v>
-      </c>
-      <c r="F30" s="30">
-        <v>1</v>
-      </c>
-      <c r="G30" s="30"/>
-      <c r="H30" s="30"/>
-      <c r="I30" s="30"/>
-      <c r="J30" s="30"/>
-      <c r="K30" s="30"/>
-      <c r="L30" s="30"/>
-      <c r="M30" s="30"/>
-      <c r="N30" s="30"/>
-      <c r="O30" s="30"/>
-      <c r="P30" s="30"/>
-      <c r="Q30" s="67"/>
-    </row>
-    <row r="31" spans="1:17" s="68" customFormat="1" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A31" s="28" t="s">
+      <c r="E30" s="27">
+        <v>1</v>
+      </c>
+      <c r="F30" s="27">
+        <v>1</v>
+      </c>
+      <c r="G30" s="27"/>
+      <c r="H30" s="27"/>
+      <c r="I30" s="27"/>
+      <c r="J30" s="27"/>
+      <c r="K30" s="27"/>
+      <c r="L30" s="27"/>
+      <c r="M30" s="27"/>
+      <c r="N30" s="27"/>
+      <c r="O30" s="27"/>
+      <c r="P30" s="27"/>
+      <c r="Q30" s="49"/>
+    </row>
+    <row r="31" spans="1:17" s="50" customFormat="1" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A31" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="B31" s="29"/>
-      <c r="C31" s="89">
-        <v>1</v>
-      </c>
-      <c r="D31" s="56">
+      <c r="B31" s="26"/>
+      <c r="C31" s="71">
+        <v>1</v>
+      </c>
+      <c r="D31" s="41">
         <v>3</v>
       </c>
-      <c r="E31" s="29"/>
-      <c r="F31" s="29">
-        <v>1</v>
-      </c>
-      <c r="G31" s="29"/>
-      <c r="H31" s="29">
-        <v>2</v>
-      </c>
-      <c r="I31" s="29"/>
-      <c r="J31" s="29"/>
-      <c r="K31" s="29"/>
-      <c r="L31" s="29"/>
-      <c r="M31" s="29"/>
-      <c r="N31" s="29"/>
-      <c r="O31" s="29"/>
-      <c r="P31" s="29"/>
-      <c r="Q31" s="31"/>
-    </row>
-    <row r="32" spans="1:17" s="69" customFormat="1" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A32" s="38" t="s">
-        <v>1</v>
-      </c>
-      <c r="B32" s="38"/>
-      <c r="C32" s="60">
+      <c r="E31" s="26"/>
+      <c r="F31" s="26">
+        <v>1</v>
+      </c>
+      <c r="G31" s="26"/>
+      <c r="H31" s="26">
+        <v>2</v>
+      </c>
+      <c r="I31" s="26"/>
+      <c r="J31" s="26"/>
+      <c r="K31" s="26"/>
+      <c r="L31" s="26"/>
+      <c r="M31" s="26"/>
+      <c r="N31" s="26"/>
+      <c r="O31" s="26"/>
+      <c r="P31" s="26"/>
+      <c r="Q31" s="28"/>
+    </row>
+    <row r="32" spans="1:17" s="51" customFormat="1" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A32" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="B32" s="32"/>
+      <c r="C32" s="44">
         <v>3</v>
       </c>
-      <c r="D32" s="48">
-        <v>2</v>
-      </c>
-      <c r="E32" s="39"/>
-      <c r="F32" s="39">
-        <v>1</v>
-      </c>
-      <c r="G32" s="39">
-        <v>1</v>
-      </c>
-      <c r="H32" s="39"/>
-      <c r="I32" s="39"/>
-      <c r="J32" s="39"/>
-      <c r="K32" s="39"/>
-      <c r="L32" s="39"/>
-      <c r="M32" s="39"/>
-      <c r="N32" s="39"/>
-      <c r="O32" s="39"/>
-      <c r="P32" s="39"/>
-      <c r="Q32" s="40"/>
-    </row>
-    <row r="33" spans="1:17" s="69" customFormat="1" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A33" s="38" t="s">
+      <c r="D32" s="38">
+        <v>2</v>
+      </c>
+      <c r="E32" s="33"/>
+      <c r="F32" s="33">
+        <v>1</v>
+      </c>
+      <c r="G32" s="33">
+        <v>1</v>
+      </c>
+      <c r="H32" s="33"/>
+      <c r="I32" s="33"/>
+      <c r="J32" s="33"/>
+      <c r="K32" s="33"/>
+      <c r="L32" s="33"/>
+      <c r="M32" s="33"/>
+      <c r="N32" s="33"/>
+      <c r="O32" s="33"/>
+      <c r="P32" s="33"/>
+      <c r="Q32" s="34"/>
+    </row>
+    <row r="33" spans="1:17" s="51" customFormat="1" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A33" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="B33" s="38"/>
-      <c r="C33" s="106">
+      <c r="B33" s="32"/>
+      <c r="C33" s="88">
         <v>5</v>
       </c>
-      <c r="D33" s="39">
-        <v>1</v>
-      </c>
-      <c r="E33" s="39">
-        <v>1</v>
-      </c>
-      <c r="F33" s="39"/>
-      <c r="G33" s="39"/>
-      <c r="H33" s="39"/>
-      <c r="I33" s="39"/>
-      <c r="J33" s="39">
-        <v>1</v>
-      </c>
-      <c r="K33" s="39"/>
-      <c r="L33" s="39"/>
-      <c r="M33" s="39"/>
-      <c r="N33" s="39"/>
-      <c r="O33" s="39"/>
-      <c r="P33" s="39"/>
-      <c r="Q33" s="40"/>
-    </row>
-    <row r="34" spans="1:17" s="69" customFormat="1" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A34" s="38" t="s">
+      <c r="D33" s="33">
+        <v>1</v>
+      </c>
+      <c r="E33" s="33">
+        <v>1</v>
+      </c>
+      <c r="F33" s="33"/>
+      <c r="G33" s="33"/>
+      <c r="H33" s="33"/>
+      <c r="I33" s="33"/>
+      <c r="J33" s="33">
+        <v>1</v>
+      </c>
+      <c r="K33" s="33"/>
+      <c r="L33" s="33"/>
+      <c r="M33" s="33"/>
+      <c r="N33" s="33"/>
+      <c r="O33" s="33"/>
+      <c r="P33" s="33"/>
+      <c r="Q33" s="34"/>
+    </row>
+    <row r="34" spans="1:17" s="51" customFormat="1" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A34" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="B34" s="38"/>
-      <c r="C34" s="61">
+      <c r="B34" s="32"/>
+      <c r="C34" s="45">
         <v>3</v>
       </c>
-      <c r="D34" s="39">
-        <v>1</v>
-      </c>
-      <c r="E34" s="39">
-        <v>1</v>
-      </c>
-      <c r="F34" s="39"/>
-      <c r="G34" s="39"/>
-      <c r="H34" s="91"/>
-      <c r="I34" s="39"/>
-      <c r="J34" s="39"/>
-      <c r="K34" s="39"/>
-      <c r="L34" s="91"/>
-      <c r="M34" s="39"/>
-      <c r="N34" s="39"/>
-      <c r="O34" s="39"/>
-      <c r="P34" s="39"/>
-      <c r="Q34" s="40"/>
-    </row>
-    <row r="35" spans="1:17" s="83" customFormat="1" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A35" s="80" t="s">
+      <c r="D34" s="33">
+        <v>1</v>
+      </c>
+      <c r="E34" s="33">
+        <v>1</v>
+      </c>
+      <c r="F34" s="33"/>
+      <c r="G34" s="33"/>
+      <c r="H34" s="73"/>
+      <c r="I34" s="33"/>
+      <c r="J34" s="33"/>
+      <c r="K34" s="33"/>
+      <c r="L34" s="73"/>
+      <c r="M34" s="33"/>
+      <c r="N34" s="33"/>
+      <c r="O34" s="33"/>
+      <c r="P34" s="33"/>
+      <c r="Q34" s="34"/>
+    </row>
+    <row r="35" spans="1:17" s="65" customFormat="1" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A35" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="B35" s="81"/>
-      <c r="C35" s="97"/>
-      <c r="D35" s="81"/>
-      <c r="E35" s="81">
-        <v>1</v>
-      </c>
-      <c r="F35" s="81"/>
-      <c r="G35" s="80"/>
-      <c r="H35" s="107">
-        <v>2</v>
-      </c>
-      <c r="I35" s="81"/>
-      <c r="J35" s="81"/>
-      <c r="K35" s="80"/>
-      <c r="L35" s="107">
-        <v>2</v>
-      </c>
-      <c r="M35" s="81">
-        <v>1</v>
-      </c>
-      <c r="N35" s="81">
-        <v>1</v>
-      </c>
-      <c r="O35" s="81"/>
-      <c r="P35" s="81"/>
-      <c r="Q35" s="82"/>
-    </row>
-    <row r="36" spans="1:17" s="83" customFormat="1" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A36" s="80" t="s">
+      <c r="B35" s="63"/>
+      <c r="C35" s="79"/>
+      <c r="D35" s="63"/>
+      <c r="E35" s="63">
+        <v>1</v>
+      </c>
+      <c r="F35" s="63"/>
+      <c r="G35" s="62"/>
+      <c r="H35" s="89">
+        <v>2</v>
+      </c>
+      <c r="I35" s="63"/>
+      <c r="J35" s="63"/>
+      <c r="K35" s="62"/>
+      <c r="L35" s="89">
+        <v>2</v>
+      </c>
+      <c r="M35" s="63">
+        <v>1</v>
+      </c>
+      <c r="N35" s="63">
+        <v>1</v>
+      </c>
+      <c r="O35" s="63"/>
+      <c r="P35" s="63"/>
+      <c r="Q35" s="64"/>
+    </row>
+    <row r="36" spans="1:17" s="65" customFormat="1" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A36" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="B36" s="81"/>
-      <c r="C36" s="81"/>
-      <c r="D36" s="81"/>
-      <c r="E36" s="81"/>
-      <c r="F36" s="81"/>
-      <c r="G36" s="80"/>
-      <c r="H36" s="108">
-        <v>2</v>
-      </c>
-      <c r="I36" s="81"/>
-      <c r="J36" s="98"/>
-      <c r="K36" s="80">
-        <v>1</v>
-      </c>
-      <c r="L36" s="108">
-        <v>2</v>
-      </c>
-      <c r="M36" s="81">
-        <v>1</v>
-      </c>
-      <c r="N36" s="81">
-        <v>1</v>
-      </c>
-      <c r="O36" s="81"/>
-      <c r="P36" s="81"/>
-      <c r="Q36" s="82"/>
-    </row>
-    <row r="37" spans="1:17" s="79" customFormat="1" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A37" s="35" t="s">
+      <c r="B36" s="63"/>
+      <c r="C36" s="63"/>
+      <c r="D36" s="63"/>
+      <c r="E36" s="63"/>
+      <c r="F36" s="63"/>
+      <c r="G36" s="62"/>
+      <c r="H36" s="90">
+        <v>2</v>
+      </c>
+      <c r="I36" s="63"/>
+      <c r="J36" s="80"/>
+      <c r="K36" s="62">
+        <v>1</v>
+      </c>
+      <c r="L36" s="90">
+        <v>2</v>
+      </c>
+      <c r="M36" s="63">
+        <v>1</v>
+      </c>
+      <c r="N36" s="63">
+        <v>1</v>
+      </c>
+      <c r="O36" s="63"/>
+      <c r="P36" s="63"/>
+      <c r="Q36" s="64"/>
+    </row>
+    <row r="37" spans="1:17" s="61" customFormat="1" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A37" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="B37" s="36"/>
-      <c r="C37" s="36"/>
-      <c r="D37" s="36"/>
-      <c r="E37" s="36">
-        <v>1</v>
-      </c>
-      <c r="F37" s="36"/>
-      <c r="G37" s="36"/>
-      <c r="H37" s="46"/>
-      <c r="I37" s="35"/>
-      <c r="J37" s="57">
+      <c r="B37" s="30"/>
+      <c r="C37" s="30"/>
+      <c r="D37" s="30"/>
+      <c r="E37" s="30">
+        <v>1</v>
+      </c>
+      <c r="F37" s="30"/>
+      <c r="G37" s="30"/>
+      <c r="H37" s="36"/>
+      <c r="I37" s="29"/>
+      <c r="J37" s="42">
         <v>4</v>
       </c>
-      <c r="K37" s="36"/>
-      <c r="L37" s="46"/>
-      <c r="M37" s="36">
-        <v>1</v>
-      </c>
-      <c r="N37" s="36"/>
-      <c r="O37" s="36"/>
-      <c r="P37" s="36"/>
-      <c r="Q37" s="37"/>
-    </row>
-    <row r="38" spans="1:17" s="79" customFormat="1" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A38" s="35" t="s">
+      <c r="K37" s="30"/>
+      <c r="L37" s="36"/>
+      <c r="M37" s="30">
+        <v>1</v>
+      </c>
+      <c r="N37" s="30"/>
+      <c r="O37" s="30"/>
+      <c r="P37" s="30"/>
+      <c r="Q37" s="31"/>
+    </row>
+    <row r="38" spans="1:17" s="61" customFormat="1" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A38" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="B38" s="36"/>
-      <c r="C38" s="36">
-        <v>1</v>
-      </c>
-      <c r="D38" s="36"/>
-      <c r="E38" s="36">
-        <v>1</v>
-      </c>
-      <c r="F38" s="36"/>
-      <c r="G38" s="36"/>
-      <c r="H38" s="36"/>
-      <c r="I38" s="99"/>
-      <c r="J38" s="59">
+      <c r="B38" s="30"/>
+      <c r="C38" s="30">
+        <v>1</v>
+      </c>
+      <c r="D38" s="30"/>
+      <c r="E38" s="30">
+        <v>1</v>
+      </c>
+      <c r="F38" s="30"/>
+      <c r="G38" s="30"/>
+      <c r="H38" s="30"/>
+      <c r="I38" s="81"/>
+      <c r="J38" s="43">
         <v>3</v>
       </c>
-      <c r="K38" s="36"/>
-      <c r="L38" s="36"/>
-      <c r="M38" s="36"/>
-      <c r="N38" s="36"/>
-      <c r="O38" s="36"/>
-      <c r="P38" s="36"/>
-      <c r="Q38" s="37"/>
-    </row>
-    <row r="39" spans="1:17" s="73" customFormat="1" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A39" s="70" t="s">
+      <c r="K38" s="30"/>
+      <c r="L38" s="30"/>
+      <c r="M38" s="30"/>
+      <c r="N38" s="30"/>
+      <c r="O38" s="30"/>
+      <c r="P38" s="30"/>
+      <c r="Q38" s="31"/>
+    </row>
+    <row r="39" spans="1:17" s="55" customFormat="1" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A39" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="B39" s="71"/>
-      <c r="C39" s="71"/>
-      <c r="D39" s="71"/>
-      <c r="E39" s="71"/>
-      <c r="F39" s="71"/>
-      <c r="G39" s="71"/>
-      <c r="H39" s="70">
-        <v>2</v>
-      </c>
-      <c r="I39" s="92">
-        <v>2</v>
-      </c>
-      <c r="J39" s="90">
-        <v>1</v>
-      </c>
-      <c r="K39" s="71">
-        <v>1</v>
-      </c>
-      <c r="L39" s="71"/>
-      <c r="M39" s="71"/>
-      <c r="N39" s="71"/>
-      <c r="O39" s="71"/>
-      <c r="P39" s="71"/>
-      <c r="Q39" s="72"/>
-    </row>
-    <row r="40" spans="1:17" s="73" customFormat="1" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A40" s="70" t="s">
+      <c r="B39" s="53"/>
+      <c r="C39" s="53"/>
+      <c r="D39" s="53"/>
+      <c r="E39" s="53"/>
+      <c r="F39" s="53"/>
+      <c r="G39" s="53"/>
+      <c r="H39" s="52">
+        <v>2</v>
+      </c>
+      <c r="I39" s="74">
+        <v>2</v>
+      </c>
+      <c r="J39" s="72">
+        <v>1</v>
+      </c>
+      <c r="K39" s="53">
+        <v>1</v>
+      </c>
+      <c r="L39" s="53"/>
+      <c r="M39" s="53"/>
+      <c r="N39" s="53"/>
+      <c r="O39" s="53"/>
+      <c r="P39" s="53"/>
+      <c r="Q39" s="54"/>
+    </row>
+    <row r="40" spans="1:17" s="55" customFormat="1" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A40" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="B40" s="71"/>
-      <c r="C40" s="71"/>
-      <c r="D40" s="71"/>
-      <c r="E40" s="71"/>
-      <c r="F40" s="71"/>
-      <c r="G40" s="71"/>
-      <c r="H40" s="70"/>
-      <c r="I40" s="93">
-        <v>2</v>
-      </c>
-      <c r="J40" s="71"/>
-      <c r="K40" s="71"/>
-      <c r="L40" s="71"/>
-      <c r="M40" s="71"/>
-      <c r="N40" s="71">
-        <v>1</v>
-      </c>
-      <c r="O40" s="71">
-        <v>1</v>
-      </c>
-      <c r="P40" s="71">
-        <v>1</v>
-      </c>
-      <c r="Q40" s="72">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:17" s="73" customFormat="1" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A41" s="70" t="s">
+      <c r="B40" s="53"/>
+      <c r="C40" s="53"/>
+      <c r="D40" s="53"/>
+      <c r="E40" s="53"/>
+      <c r="F40" s="53"/>
+      <c r="G40" s="53"/>
+      <c r="H40" s="52"/>
+      <c r="I40" s="75">
+        <v>2</v>
+      </c>
+      <c r="J40" s="53"/>
+      <c r="K40" s="53"/>
+      <c r="L40" s="53"/>
+      <c r="M40" s="53"/>
+      <c r="N40" s="53">
+        <v>1</v>
+      </c>
+      <c r="O40" s="53">
+        <v>1</v>
+      </c>
+      <c r="P40" s="53">
+        <v>1</v>
+      </c>
+      <c r="Q40" s="54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" s="55" customFormat="1" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A41" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="B41" s="71"/>
-      <c r="C41" s="71"/>
-      <c r="D41" s="71"/>
-      <c r="E41" s="71"/>
-      <c r="F41" s="71"/>
-      <c r="G41" s="71"/>
-      <c r="H41" s="70"/>
-      <c r="I41" s="94">
-        <v>2</v>
-      </c>
-      <c r="J41" s="71"/>
-      <c r="K41" s="71"/>
-      <c r="L41" s="71"/>
-      <c r="M41" s="71"/>
-      <c r="N41" s="71"/>
-      <c r="O41" s="71"/>
-      <c r="P41" s="71"/>
-      <c r="Q41" s="72"/>
-    </row>
-    <row r="42" spans="1:17" s="76" customFormat="1" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="B42" s="77"/>
-      <c r="C42" s="77"/>
-      <c r="D42" s="77"/>
-      <c r="E42" s="77"/>
-      <c r="F42" s="77"/>
-      <c r="G42" s="77"/>
-      <c r="H42" s="77"/>
-      <c r="I42" s="77"/>
-      <c r="J42" s="77"/>
-      <c r="K42" s="77"/>
-      <c r="L42" s="77"/>
-      <c r="M42" s="77"/>
-      <c r="N42" s="77"/>
-      <c r="O42" s="77"/>
-      <c r="P42" s="77"/>
-      <c r="Q42" s="78"/>
+      <c r="B41" s="53"/>
+      <c r="C41" s="53"/>
+      <c r="D41" s="53"/>
+      <c r="E41" s="53"/>
+      <c r="F41" s="53"/>
+      <c r="G41" s="53"/>
+      <c r="H41" s="52"/>
+      <c r="I41" s="76">
+        <v>2</v>
+      </c>
+      <c r="J41" s="53"/>
+      <c r="K41" s="53"/>
+      <c r="L41" s="53"/>
+      <c r="M41" s="53"/>
+      <c r="N41" s="53"/>
+      <c r="O41" s="53"/>
+      <c r="P41" s="53"/>
+      <c r="Q41" s="54"/>
+    </row>
+    <row r="42" spans="1:17" s="58" customFormat="1" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="B42" s="59"/>
+      <c r="C42" s="59"/>
+      <c r="D42" s="59"/>
+      <c r="E42" s="59"/>
+      <c r="F42" s="59"/>
+      <c r="G42" s="59"/>
+      <c r="H42" s="59"/>
+      <c r="I42" s="59"/>
+      <c r="J42" s="59"/>
+      <c r="K42" s="59"/>
+      <c r="L42" s="59"/>
+      <c r="M42" s="59"/>
+      <c r="N42" s="59"/>
+      <c r="O42" s="59"/>
+      <c r="P42" s="59"/>
+      <c r="Q42" s="60"/>
     </row>
     <row r="43" spans="1:17" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A43" s="74" t="s">
+      <c r="A43" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="B43" s="75"/>
+      <c r="B43" s="57"/>
       <c r="C43" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D43" s="44" t="s">
+      <c r="D43" s="35" t="s">
         <v>11</v>
       </c>
       <c r="E43" s="7" t="s">
@@ -3336,295 +3629,295 @@
         <v>5</v>
       </c>
     </row>
-    <row r="44" spans="1:17" s="68" customFormat="1" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A44" s="66" t="s">
+    <row r="44" spans="1:17" s="50" customFormat="1" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A44" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="B44" s="30"/>
-      <c r="C44" s="66">
-        <v>2</v>
-      </c>
-      <c r="D44" s="54">
+      <c r="B44" s="27"/>
+      <c r="C44" s="48">
+        <v>2</v>
+      </c>
+      <c r="D44" s="39">
         <v>3</v>
       </c>
-      <c r="E44" s="30">
-        <v>1</v>
-      </c>
-      <c r="F44" s="30">
-        <v>1</v>
-      </c>
-      <c r="G44" s="30"/>
-      <c r="H44" s="30"/>
-      <c r="I44" s="30"/>
-      <c r="J44" s="30"/>
-      <c r="K44" s="30"/>
-      <c r="L44" s="30"/>
-      <c r="M44" s="30"/>
-      <c r="N44" s="30"/>
-      <c r="O44" s="30"/>
-      <c r="P44" s="30"/>
-      <c r="Q44" s="67"/>
-    </row>
-    <row r="45" spans="1:17" s="68" customFormat="1" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A45" s="28" t="s">
+      <c r="E44" s="27">
+        <v>1</v>
+      </c>
+      <c r="F44" s="27">
+        <v>1</v>
+      </c>
+      <c r="G44" s="27"/>
+      <c r="H44" s="27"/>
+      <c r="I44" s="27"/>
+      <c r="J44" s="27"/>
+      <c r="K44" s="27"/>
+      <c r="L44" s="27"/>
+      <c r="M44" s="27"/>
+      <c r="N44" s="27"/>
+      <c r="O44" s="27"/>
+      <c r="P44" s="27"/>
+      <c r="Q44" s="49"/>
+    </row>
+    <row r="45" spans="1:17" s="50" customFormat="1" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A45" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="B45" s="29"/>
-      <c r="C45" s="89">
-        <v>1</v>
-      </c>
-      <c r="D45" s="56">
+      <c r="B45" s="26"/>
+      <c r="C45" s="71">
+        <v>1</v>
+      </c>
+      <c r="D45" s="41">
         <v>3</v>
       </c>
-      <c r="E45" s="29"/>
-      <c r="F45" s="29">
-        <v>1</v>
-      </c>
-      <c r="G45" s="29"/>
-      <c r="H45" s="29">
-        <v>2</v>
-      </c>
-      <c r="I45" s="29"/>
-      <c r="J45" s="29"/>
-      <c r="K45" s="29"/>
-      <c r="L45" s="29"/>
-      <c r="M45" s="29"/>
-      <c r="N45" s="29"/>
-      <c r="O45" s="29"/>
-      <c r="P45" s="29"/>
-      <c r="Q45" s="31"/>
-    </row>
-    <row r="46" spans="1:17" s="69" customFormat="1" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A46" s="38" t="s">
-        <v>1</v>
-      </c>
-      <c r="B46" s="38"/>
-      <c r="C46" s="60">
+      <c r="E45" s="26"/>
+      <c r="F45" s="26">
+        <v>1</v>
+      </c>
+      <c r="G45" s="26"/>
+      <c r="H45" s="26">
+        <v>2</v>
+      </c>
+      <c r="I45" s="26"/>
+      <c r="J45" s="26"/>
+      <c r="K45" s="26"/>
+      <c r="L45" s="26"/>
+      <c r="M45" s="26"/>
+      <c r="N45" s="26"/>
+      <c r="O45" s="26"/>
+      <c r="P45" s="26"/>
+      <c r="Q45" s="28"/>
+    </row>
+    <row r="46" spans="1:17" s="51" customFormat="1" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A46" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="B46" s="32"/>
+      <c r="C46" s="44">
         <v>3</v>
       </c>
-      <c r="D46" s="48">
-        <v>2</v>
-      </c>
-      <c r="E46" s="39"/>
-      <c r="F46" s="39">
-        <v>1</v>
-      </c>
-      <c r="G46" s="39">
-        <v>1</v>
-      </c>
-      <c r="H46" s="39"/>
-      <c r="I46" s="39"/>
-      <c r="J46" s="39"/>
-      <c r="K46" s="39"/>
-      <c r="L46" s="39"/>
-      <c r="M46" s="39"/>
-      <c r="N46" s="39"/>
-      <c r="O46" s="39"/>
-      <c r="P46" s="39"/>
-      <c r="Q46" s="40"/>
-    </row>
-    <row r="47" spans="1:17" s="69" customFormat="1" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A47" s="38" t="s">
+      <c r="D46" s="38">
+        <v>2</v>
+      </c>
+      <c r="E46" s="33"/>
+      <c r="F46" s="33">
+        <v>1</v>
+      </c>
+      <c r="G46" s="33">
+        <v>1</v>
+      </c>
+      <c r="H46" s="33"/>
+      <c r="I46" s="33"/>
+      <c r="J46" s="33"/>
+      <c r="K46" s="33"/>
+      <c r="L46" s="33"/>
+      <c r="M46" s="33"/>
+      <c r="N46" s="33"/>
+      <c r="O46" s="33"/>
+      <c r="P46" s="33"/>
+      <c r="Q46" s="34"/>
+    </row>
+    <row r="47" spans="1:17" s="51" customFormat="1" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A47" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="B47" s="38"/>
-      <c r="C47" s="106">
+      <c r="B47" s="32"/>
+      <c r="C47" s="88">
         <v>5</v>
       </c>
-      <c r="D47" s="39">
-        <v>1</v>
-      </c>
-      <c r="E47" s="39">
-        <v>1</v>
-      </c>
-      <c r="F47" s="39"/>
-      <c r="G47" s="39"/>
-      <c r="H47" s="39"/>
-      <c r="I47" s="39"/>
-      <c r="J47" s="39">
-        <v>1</v>
-      </c>
-      <c r="K47" s="39"/>
-      <c r="L47" s="39"/>
-      <c r="M47" s="39"/>
-      <c r="N47" s="39"/>
-      <c r="O47" s="39"/>
-      <c r="P47" s="39"/>
-      <c r="Q47" s="40"/>
-    </row>
-    <row r="48" spans="1:17" s="69" customFormat="1" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A48" s="38" t="s">
+      <c r="D47" s="33">
+        <v>1</v>
+      </c>
+      <c r="E47" s="33">
+        <v>1</v>
+      </c>
+      <c r="F47" s="33"/>
+      <c r="G47" s="33"/>
+      <c r="H47" s="33"/>
+      <c r="I47" s="33"/>
+      <c r="J47" s="33">
+        <v>1</v>
+      </c>
+      <c r="K47" s="33"/>
+      <c r="L47" s="33"/>
+      <c r="M47" s="33"/>
+      <c r="N47" s="33"/>
+      <c r="O47" s="33"/>
+      <c r="P47" s="33"/>
+      <c r="Q47" s="34"/>
+    </row>
+    <row r="48" spans="1:17" s="51" customFormat="1" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A48" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="B48" s="38"/>
-      <c r="C48" s="61">
+      <c r="B48" s="32"/>
+      <c r="C48" s="45">
         <v>3</v>
       </c>
-      <c r="D48" s="39">
-        <v>1</v>
-      </c>
-      <c r="E48" s="39">
-        <v>1</v>
-      </c>
-      <c r="F48" s="39"/>
-      <c r="G48" s="39"/>
-      <c r="H48" s="91"/>
-      <c r="I48" s="91"/>
-      <c r="J48" s="39"/>
-      <c r="K48" s="39"/>
-      <c r="L48" s="39"/>
-      <c r="M48" s="39"/>
-      <c r="N48" s="39"/>
-      <c r="O48" s="39"/>
-      <c r="P48" s="39"/>
-      <c r="Q48" s="40"/>
-    </row>
-    <row r="49" spans="1:17" s="83" customFormat="1" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A49" s="80" t="s">
+      <c r="D48" s="33">
+        <v>1</v>
+      </c>
+      <c r="E48" s="33">
+        <v>1</v>
+      </c>
+      <c r="F48" s="33"/>
+      <c r="G48" s="33"/>
+      <c r="H48" s="73"/>
+      <c r="I48" s="73"/>
+      <c r="J48" s="33"/>
+      <c r="K48" s="33"/>
+      <c r="L48" s="33"/>
+      <c r="M48" s="33"/>
+      <c r="N48" s="33"/>
+      <c r="O48" s="33"/>
+      <c r="P48" s="33"/>
+      <c r="Q48" s="34"/>
+    </row>
+    <row r="49" spans="1:17" s="65" customFormat="1" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A49" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="B49" s="81"/>
-      <c r="C49" s="97"/>
-      <c r="D49" s="81"/>
-      <c r="E49" s="81"/>
-      <c r="F49" s="81"/>
-      <c r="G49" s="80"/>
-      <c r="H49" s="111">
-        <v>2</v>
-      </c>
-      <c r="I49" s="112">
-        <v>2</v>
-      </c>
-      <c r="J49" s="81">
-        <v>1</v>
-      </c>
-      <c r="K49" s="81">
-        <v>1</v>
-      </c>
-      <c r="L49" s="98"/>
-      <c r="M49" s="81"/>
-      <c r="N49" s="81"/>
-      <c r="O49" s="81"/>
-      <c r="P49" s="81"/>
-      <c r="Q49" s="82"/>
-    </row>
-    <row r="50" spans="1:17" s="88" customFormat="1" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A50" s="85" t="s">
+      <c r="B49" s="63"/>
+      <c r="C49" s="79"/>
+      <c r="D49" s="63"/>
+      <c r="E49" s="63"/>
+      <c r="F49" s="63"/>
+      <c r="G49" s="62"/>
+      <c r="H49" s="93">
+        <v>2</v>
+      </c>
+      <c r="I49" s="94">
+        <v>2</v>
+      </c>
+      <c r="J49" s="63">
+        <v>1</v>
+      </c>
+      <c r="K49" s="63">
+        <v>1</v>
+      </c>
+      <c r="L49" s="80"/>
+      <c r="M49" s="63"/>
+      <c r="N49" s="63"/>
+      <c r="O49" s="63"/>
+      <c r="P49" s="63"/>
+      <c r="Q49" s="64"/>
+    </row>
+    <row r="50" spans="1:17" s="70" customFormat="1" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A50" s="67" t="s">
         <v>4</v>
       </c>
-      <c r="B50" s="86"/>
-      <c r="C50" s="86"/>
-      <c r="D50" s="86"/>
-      <c r="E50" s="86">
-        <v>1</v>
-      </c>
-      <c r="F50" s="86"/>
-      <c r="G50" s="85"/>
-      <c r="H50" s="113">
-        <v>2</v>
-      </c>
-      <c r="I50" s="109"/>
-      <c r="J50" s="86"/>
-      <c r="K50" s="85"/>
-      <c r="L50" s="113">
-        <v>2</v>
-      </c>
-      <c r="M50" s="86">
-        <v>1</v>
-      </c>
-      <c r="N50" s="86">
-        <v>1</v>
-      </c>
-      <c r="O50" s="86"/>
-      <c r="P50" s="86"/>
-      <c r="Q50" s="87"/>
-    </row>
-    <row r="51" spans="1:17" s="88" customFormat="1" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A51" s="85" t="s">
+      <c r="B50" s="68"/>
+      <c r="C50" s="68"/>
+      <c r="D50" s="68"/>
+      <c r="E50" s="68">
+        <v>1</v>
+      </c>
+      <c r="F50" s="68"/>
+      <c r="G50" s="67"/>
+      <c r="H50" s="95">
+        <v>2</v>
+      </c>
+      <c r="I50" s="91"/>
+      <c r="J50" s="68"/>
+      <c r="K50" s="67"/>
+      <c r="L50" s="95">
+        <v>2</v>
+      </c>
+      <c r="M50" s="68">
+        <v>1</v>
+      </c>
+      <c r="N50" s="68">
+        <v>1</v>
+      </c>
+      <c r="O50" s="68"/>
+      <c r="P50" s="68"/>
+      <c r="Q50" s="69"/>
+    </row>
+    <row r="51" spans="1:17" s="70" customFormat="1" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A51" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="B51" s="86"/>
-      <c r="C51" s="86"/>
-      <c r="D51" s="86"/>
-      <c r="E51" s="86"/>
-      <c r="F51" s="86"/>
-      <c r="G51" s="85"/>
-      <c r="H51" s="114">
-        <v>2</v>
-      </c>
-      <c r="I51" s="86"/>
-      <c r="J51" s="110"/>
-      <c r="K51" s="85">
-        <v>1</v>
-      </c>
-      <c r="L51" s="114">
-        <v>2</v>
-      </c>
-      <c r="M51" s="86">
-        <v>1</v>
-      </c>
-      <c r="N51" s="86">
-        <v>1</v>
-      </c>
-      <c r="O51" s="86"/>
-      <c r="P51" s="86"/>
-      <c r="Q51" s="87"/>
-    </row>
-    <row r="52" spans="1:17" s="79" customFormat="1" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A52" s="35" t="s">
+      <c r="B51" s="68"/>
+      <c r="C51" s="68"/>
+      <c r="D51" s="68"/>
+      <c r="E51" s="68"/>
+      <c r="F51" s="68"/>
+      <c r="G51" s="67"/>
+      <c r="H51" s="96">
+        <v>2</v>
+      </c>
+      <c r="I51" s="68"/>
+      <c r="J51" s="92"/>
+      <c r="K51" s="67">
+        <v>1</v>
+      </c>
+      <c r="L51" s="96">
+        <v>2</v>
+      </c>
+      <c r="M51" s="68">
+        <v>1</v>
+      </c>
+      <c r="N51" s="68">
+        <v>1</v>
+      </c>
+      <c r="O51" s="68"/>
+      <c r="P51" s="68"/>
+      <c r="Q51" s="69"/>
+    </row>
+    <row r="52" spans="1:17" s="61" customFormat="1" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A52" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="B52" s="36"/>
-      <c r="C52" s="36"/>
-      <c r="D52" s="36"/>
-      <c r="E52" s="36">
-        <v>1</v>
-      </c>
-      <c r="F52" s="36"/>
-      <c r="G52" s="36"/>
-      <c r="H52" s="46"/>
-      <c r="I52" s="35"/>
-      <c r="J52" s="57">
+      <c r="B52" s="30"/>
+      <c r="C52" s="30"/>
+      <c r="D52" s="30"/>
+      <c r="E52" s="30">
+        <v>1</v>
+      </c>
+      <c r="F52" s="30"/>
+      <c r="G52" s="30"/>
+      <c r="H52" s="36"/>
+      <c r="I52" s="29"/>
+      <c r="J52" s="42">
         <v>4</v>
       </c>
-      <c r="K52" s="36"/>
-      <c r="L52" s="46"/>
-      <c r="M52" s="36">
-        <v>1</v>
-      </c>
-      <c r="N52" s="36"/>
-      <c r="O52" s="36"/>
-      <c r="P52" s="36"/>
-      <c r="Q52" s="37"/>
-    </row>
-    <row r="53" spans="1:17" s="79" customFormat="1" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A53" s="35" t="s">
+      <c r="K52" s="30"/>
+      <c r="L52" s="36"/>
+      <c r="M52" s="30">
+        <v>1</v>
+      </c>
+      <c r="N52" s="30"/>
+      <c r="O52" s="30"/>
+      <c r="P52" s="30"/>
+      <c r="Q52" s="31"/>
+    </row>
+    <row r="53" spans="1:17" s="61" customFormat="1" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A53" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="B53" s="36"/>
-      <c r="C53" s="36">
-        <v>1</v>
-      </c>
-      <c r="D53" s="36"/>
-      <c r="E53" s="36">
-        <v>1</v>
-      </c>
-      <c r="F53" s="36"/>
-      <c r="G53" s="36"/>
-      <c r="H53" s="36"/>
-      <c r="I53" s="99"/>
-      <c r="J53" s="59">
+      <c r="B53" s="30"/>
+      <c r="C53" s="30">
+        <v>1</v>
+      </c>
+      <c r="D53" s="30"/>
+      <c r="E53" s="30">
+        <v>1</v>
+      </c>
+      <c r="F53" s="30"/>
+      <c r="G53" s="30"/>
+      <c r="H53" s="30"/>
+      <c r="I53" s="81"/>
+      <c r="J53" s="43">
         <v>3</v>
       </c>
-      <c r="K53" s="36"/>
-      <c r="L53" s="36"/>
-      <c r="M53" s="36"/>
-      <c r="N53" s="36"/>
-      <c r="O53" s="36"/>
-      <c r="P53" s="36"/>
-      <c r="Q53" s="37"/>
-    </row>
-    <row r="54" spans="1:17" s="84" customFormat="1" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="K53" s="30"/>
+      <c r="L53" s="30"/>
+      <c r="M53" s="30"/>
+      <c r="N53" s="30"/>
+      <c r="O53" s="30"/>
+      <c r="P53" s="30"/>
+      <c r="Q53" s="31"/>
+    </row>
+    <row r="54" spans="1:17" s="66" customFormat="1" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A54" s="16" t="s">
         <v>14</v>
       </c>
@@ -3635,7 +3928,7 @@
       <c r="F54" s="15"/>
       <c r="G54" s="15"/>
       <c r="H54" s="16"/>
-      <c r="I54" s="115">
+      <c r="I54" s="97">
         <v>2</v>
       </c>
       <c r="J54" s="14"/>
@@ -3655,7 +3948,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:17" s="84" customFormat="1" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+    <row r="55" spans="1:17" s="66" customFormat="1" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A55" s="16" t="s">
         <v>15</v>
       </c>
@@ -3666,7 +3959,7 @@
       <c r="F55" s="15"/>
       <c r="G55" s="15"/>
       <c r="H55" s="16"/>
-      <c r="I55" s="116">
+      <c r="I55" s="98">
         <v>2</v>
       </c>
       <c r="J55" s="15"/>
@@ -3678,23 +3971,23 @@
       <c r="P55" s="15"/>
       <c r="Q55" s="22"/>
     </row>
-    <row r="56" spans="1:17" s="76" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="B56" s="77"/>
-      <c r="C56" s="77"/>
-      <c r="D56" s="77"/>
-      <c r="E56" s="77"/>
-      <c r="F56" s="77"/>
-      <c r="G56" s="77"/>
-      <c r="H56" s="77"/>
-      <c r="I56" s="77"/>
-      <c r="J56" s="77"/>
-      <c r="K56" s="77"/>
-      <c r="L56" s="77"/>
-      <c r="M56" s="77"/>
-      <c r="N56" s="77"/>
-      <c r="O56" s="77"/>
-      <c r="P56" s="77"/>
-      <c r="Q56" s="78"/>
+    <row r="56" spans="1:17" s="58" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="B56" s="59"/>
+      <c r="C56" s="59"/>
+      <c r="D56" s="59"/>
+      <c r="E56" s="59"/>
+      <c r="F56" s="59"/>
+      <c r="G56" s="59"/>
+      <c r="H56" s="59"/>
+      <c r="I56" s="59"/>
+      <c r="J56" s="59"/>
+      <c r="K56" s="59"/>
+      <c r="L56" s="59"/>
+      <c r="M56" s="59"/>
+      <c r="N56" s="59"/>
+      <c r="O56" s="59"/>
+      <c r="P56" s="59"/>
+      <c r="Q56" s="60"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3717,40 +4010,40 @@
         <v>32</v>
       </c>
       <c r="B1" s="5"/>
-      <c r="C1" s="117" t="s">
+      <c r="C1" s="99" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="118" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="118" t="s">
+      <c r="D1" s="100" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="100" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="118" t="s">
+      <c r="F1" s="100" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="118" t="s">
+      <c r="G1" s="100" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="118" t="s">
+      <c r="H1" s="100" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="118" t="s">
+      <c r="I1" s="100" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="118" t="s">
+      <c r="J1" s="100" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="118" t="s">
+      <c r="K1" s="100" t="s">
         <v>12</v>
       </c>
-      <c r="L1" s="118" t="s">
+      <c r="L1" s="100" t="s">
         <v>13</v>
       </c>
-      <c r="M1" s="118" t="s">
+      <c r="M1" s="100" t="s">
         <v>30</v>
       </c>
-      <c r="N1" s="118" t="s">
+      <c r="N1" s="100" t="s">
         <v>31</v>
       </c>
     </row>
@@ -3760,14 +4053,14 @@
       </c>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
-      <c r="D2" s="119">
+      <c r="D2" s="101">
         <v>12</v>
       </c>
       <c r="E2" s="12">
         <v>11</v>
       </c>
       <c r="F2" s="12"/>
-      <c r="G2" s="48">
+      <c r="G2" s="38">
         <v>13</v>
       </c>
       <c r="H2" s="12">
@@ -3791,15 +4084,15 @@
         <v>1</v>
       </c>
       <c r="B3" s="10"/>
-      <c r="C3" s="120">
+      <c r="C3" s="102">
         <v>12</v>
       </c>
       <c r="D3" s="9"/>
-      <c r="E3" s="39">
+      <c r="E3" s="33">
         <v>11</v>
       </c>
       <c r="F3" s="15"/>
-      <c r="G3" s="39">
+      <c r="G3" s="33">
         <v>11</v>
       </c>
       <c r="H3" s="15"/>
@@ -3819,17 +4112,17 @@
         <v>3</v>
       </c>
       <c r="B4" s="10"/>
-      <c r="C4" s="121">
+      <c r="C4" s="103">
         <v>11</v>
       </c>
-      <c r="D4" s="121">
+      <c r="D4" s="103">
         <v>11</v>
       </c>
       <c r="E4" s="10"/>
       <c r="F4" s="17">
         <v>4</v>
       </c>
-      <c r="G4" s="39">
+      <c r="G4" s="33">
         <v>9</v>
       </c>
       <c r="H4" s="17">
@@ -3838,7 +4131,7 @@
       <c r="I4" s="17">
         <v>4</v>
       </c>
-      <c r="J4" s="122">
+      <c r="J4" s="104">
         <v>8</v>
       </c>
       <c r="K4" s="17"/>
@@ -3855,7 +4148,7 @@
       <c r="B5" s="10"/>
       <c r="C5" s="15"/>
       <c r="D5" s="15"/>
-      <c r="E5" s="123">
+      <c r="E5" s="105">
         <v>4</v>
       </c>
       <c r="F5" s="10"/>
@@ -3865,20 +4158,20 @@
       <c r="H5" s="15">
         <v>4</v>
       </c>
-      <c r="I5" s="39">
+      <c r="I5" s="33">
         <v>6</v>
       </c>
       <c r="J5" s="15"/>
       <c r="K5" s="15">
         <v>5</v>
       </c>
-      <c r="L5" s="123">
+      <c r="L5" s="105">
         <v>4</v>
       </c>
-      <c r="M5" s="123">
+      <c r="M5" s="105">
         <v>4</v>
       </c>
-      <c r="N5" s="123">
+      <c r="N5" s="105">
         <v>4</v>
       </c>
     </row>
@@ -3887,13 +4180,13 @@
         <v>8</v>
       </c>
       <c r="B6" s="10"/>
-      <c r="C6" s="121">
+      <c r="C6" s="103">
         <v>13</v>
       </c>
-      <c r="D6" s="122">
+      <c r="D6" s="104">
         <v>11</v>
       </c>
-      <c r="E6" s="122">
+      <c r="E6" s="104">
         <v>9</v>
       </c>
       <c r="F6" s="17">
@@ -3904,13 +4197,13 @@
         <v>2</v>
       </c>
       <c r="I6" s="17"/>
-      <c r="J6" s="39">
+      <c r="J6" s="33">
         <v>12</v>
       </c>
       <c r="K6" s="17">
         <v>7</v>
       </c>
-      <c r="L6" s="39">
+      <c r="L6" s="33">
         <v>12</v>
       </c>
       <c r="M6" s="17"/>
@@ -3935,7 +4228,7 @@
         <v>2</v>
       </c>
       <c r="H7" s="10"/>
-      <c r="I7" s="39">
+      <c r="I7" s="33">
         <v>12</v>
       </c>
       <c r="J7" s="15">
@@ -3962,11 +4255,11 @@
       <c r="E8" s="17">
         <v>4</v>
       </c>
-      <c r="F8" s="122">
+      <c r="F8" s="104">
         <v>6</v>
       </c>
       <c r="G8" s="17"/>
-      <c r="H8" s="121">
+      <c r="H8" s="103">
         <v>12</v>
       </c>
       <c r="I8" s="10"/>
@@ -3995,7 +4288,7 @@
         <v>8</v>
       </c>
       <c r="F9" s="15"/>
-      <c r="G9" s="121">
+      <c r="G9" s="103">
         <v>12</v>
       </c>
       <c r="H9" s="15">
@@ -4006,7 +4299,7 @@
       <c r="K9" s="15">
         <v>2</v>
       </c>
-      <c r="L9" s="39">
+      <c r="L9" s="33">
         <v>6</v>
       </c>
       <c r="M9" s="15"/>
@@ -4025,7 +4318,7 @@
       <c r="F10" s="17">
         <v>5</v>
       </c>
-      <c r="G10" s="121">
+      <c r="G10" s="103">
         <v>7</v>
       </c>
       <c r="H10" s="17">
@@ -4038,7 +4331,7 @@
         <v>2</v>
       </c>
       <c r="K10" s="10"/>
-      <c r="L10" s="39">
+      <c r="L10" s="33">
         <v>9</v>
       </c>
       <c r="M10" s="17"/>
@@ -4061,17 +4354,17 @@
       <c r="F11" s="15">
         <v>4</v>
       </c>
-      <c r="G11" s="121">
+      <c r="G11" s="103">
         <v>12</v>
       </c>
       <c r="H11" s="15">
         <v>2</v>
       </c>
       <c r="I11" s="15"/>
-      <c r="J11" s="39">
+      <c r="J11" s="33">
         <v>6</v>
       </c>
-      <c r="K11" s="39">
+      <c r="K11" s="33">
         <v>9</v>
       </c>
       <c r="L11" s="10"/>
@@ -4086,7 +4379,7 @@
       <c r="C12" s="17"/>
       <c r="D12" s="17"/>
       <c r="E12" s="17"/>
-      <c r="F12" s="121">
+      <c r="F12" s="103">
         <v>4</v>
       </c>
       <c r="G12" s="17"/>
@@ -4100,7 +4393,7 @@
       <c r="K12" s="17"/>
       <c r="L12" s="17"/>
       <c r="M12" s="10"/>
-      <c r="N12" s="39">
+      <c r="N12" s="33">
         <v>4</v>
       </c>
     </row>
@@ -4112,7 +4405,7 @@
       <c r="C13" s="15"/>
       <c r="D13" s="15"/>
       <c r="E13" s="15"/>
-      <c r="F13" s="121">
+      <c r="F13" s="103">
         <v>4</v>
       </c>
       <c r="G13" s="15"/>
@@ -4121,7 +4414,7 @@
       <c r="J13" s="15"/>
       <c r="K13" s="15"/>
       <c r="L13" s="15"/>
-      <c r="M13" s="121">
+      <c r="M13" s="103">
         <v>4</v>
       </c>
       <c r="N13" s="10"/>

--- a/Definition/Tables/Principles_classification/Summary.xlsx
+++ b/Definition/Tables/Principles_classification/Summary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\clepore\Downloads\SSI_principles\Definition\Tables\Principles_classification\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27348B89-F7D7-4419-A264-D78DBAB93D39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53208089-2D28-41E4-B04A-84C778CDD458}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10530" activeTab="3" xr2:uid="{2F691BE0-650C-425B-994B-C0A8894E19E9}"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10530" activeTab="2" xr2:uid="{2F691BE0-650C-425B-994B-C0A8894E19E9}"/>
   </bookViews>
   <sheets>
     <sheet name="SSI Principles" sheetId="1" r:id="rId1"/>
@@ -2126,7 +2126,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D0380F8-8EF8-42F0-AD92-418BE1EF637C}">
   <dimension ref="A1:T16"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
@@ -2710,7 +2710,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDFBFBA6-4E43-42FC-BA9D-A1ED5385B14C}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="93" workbookViewId="0">
+    <sheetView zoomScale="93" workbookViewId="0">
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>

--- a/Definition/Tables/Principles_classification/Summary.xlsx
+++ b/Definition/Tables/Principles_classification/Summary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\clepore\Downloads\SSI_principles\Definition\Tables\Principles_classification\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53208089-2D28-41E4-B04A-84C778CDD458}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3562037-08B5-4218-85A0-90AFB5EFD75D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10530" activeTab="2" xr2:uid="{2F691BE0-650C-425B-994B-C0A8894E19E9}"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10530" activeTab="3" xr2:uid="{2F691BE0-650C-425B-994B-C0A8894E19E9}"/>
   </bookViews>
   <sheets>
     <sheet name="SSI Principles" sheetId="1" r:id="rId1"/>
@@ -174,7 +174,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -241,6 +241,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="23">
     <border>
@@ -536,7 +548,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -618,6 +630,18 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -955,7 +979,7 @@
   <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -1546,7 +1570,7 @@
   <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -2126,7 +2150,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D0380F8-8EF8-42F0-AD92-418BE1EF637C}">
   <dimension ref="A1:T16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
@@ -2710,8 +2734,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDFBFBA6-4E43-42FC-BA9D-A1ED5385B14C}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
-    <sheetView zoomScale="93" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" zoomScale="93" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -2771,17 +2795,17 @@
       </c>
     </row>
     <row r="2" spans="1:17" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="9"/>
+      <c r="B2" s="27"/>
       <c r="C2" s="78" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="73">
+      <c r="D2" s="81">
         <v>6</v>
       </c>
-      <c r="E2" s="74">
+      <c r="E2" s="81">
         <v>7</v>
       </c>
       <c r="F2" s="74">
@@ -2812,15 +2836,15 @@
       </c>
     </row>
     <row r="3" spans="1:17" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="73">
+      <c r="B3" s="26"/>
+      <c r="C3" s="81">
         <v>6</v>
       </c>
       <c r="D3" s="72"/>
-      <c r="E3" s="75">
+      <c r="E3" s="81">
         <v>6</v>
       </c>
       <c r="F3" s="75"/>
@@ -2851,14 +2875,14 @@
       </c>
     </row>
     <row r="4" spans="1:17" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="73">
+      <c r="B4" s="26"/>
+      <c r="C4" s="81">
         <v>7</v>
       </c>
-      <c r="D4" s="73">
+      <c r="D4" s="81">
         <v>6</v>
       </c>
       <c r="E4" s="72"/>
@@ -2866,45 +2890,67 @@
       <c r="G4" s="74">
         <v>2</v>
       </c>
-      <c r="H4" s="74"/>
-      <c r="I4" s="74"/>
+      <c r="H4" s="74">
+        <v>4</v>
+      </c>
+      <c r="I4" s="74">
+        <v>3</v>
+      </c>
       <c r="J4" s="73"/>
       <c r="K4" s="74"/>
       <c r="L4" s="74"/>
       <c r="M4" s="74"/>
       <c r="N4" s="74"/>
-      <c r="O4" s="74"/>
+      <c r="O4" s="74">
+        <v>2</v>
+      </c>
       <c r="P4" s="74"/>
-      <c r="Q4" s="74"/>
+      <c r="Q4" s="74">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:17" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="82" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="9"/>
+      <c r="B5" s="83"/>
       <c r="C5" s="79">
         <v>1</v>
       </c>
       <c r="D5" s="75"/>
       <c r="E5" s="76"/>
       <c r="F5" s="72"/>
-      <c r="G5" s="75"/>
-      <c r="H5" s="75"/>
-      <c r="I5" s="75"/>
-      <c r="J5" s="75"/>
-      <c r="K5" s="75"/>
-      <c r="L5" s="76"/>
+      <c r="G5" s="86">
+        <v>6</v>
+      </c>
+      <c r="H5" s="86">
+        <v>5</v>
+      </c>
+      <c r="I5" s="75">
+        <v>2</v>
+      </c>
+      <c r="J5" s="75">
+        <v>1</v>
+      </c>
+      <c r="K5" s="75">
+        <v>1</v>
+      </c>
+      <c r="L5" s="76">
+        <v>1</v>
+      </c>
       <c r="M5" s="76"/>
       <c r="N5" s="76"/>
       <c r="O5" s="75"/>
-      <c r="P5" s="75"/>
+      <c r="P5" s="75">
+        <v>2</v>
+      </c>
       <c r="Q5" s="75"/>
     </row>
     <row r="6" spans="1:17" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="84" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="10"/>
+      <c r="B6" s="85"/>
       <c r="C6" s="73">
         <v>3</v>
       </c>
@@ -2914,43 +2960,83 @@
       <c r="E6" s="73">
         <v>2</v>
       </c>
-      <c r="F6" s="74"/>
+      <c r="F6" s="86">
+        <v>6</v>
+      </c>
       <c r="G6" s="72"/>
-      <c r="H6" s="74"/>
-      <c r="I6" s="74"/>
-      <c r="J6" s="74"/>
-      <c r="K6" s="74"/>
-      <c r="L6" s="74"/>
-      <c r="M6" s="74"/>
-      <c r="N6" s="74"/>
-      <c r="O6" s="74"/>
-      <c r="P6" s="74"/>
+      <c r="H6" s="86">
+        <v>7</v>
+      </c>
+      <c r="I6" s="74">
+        <v>3</v>
+      </c>
+      <c r="J6" s="74">
+        <v>2</v>
+      </c>
+      <c r="K6" s="74">
+        <v>2</v>
+      </c>
+      <c r="L6" s="74">
+        <v>1</v>
+      </c>
+      <c r="M6" s="74">
+        <v>1</v>
+      </c>
+      <c r="N6" s="74">
+        <v>1</v>
+      </c>
+      <c r="O6" s="74">
+        <v>2</v>
+      </c>
+      <c r="P6" s="74">
+        <v>2</v>
+      </c>
       <c r="Q6" s="74"/>
     </row>
     <row r="7" spans="1:17" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="84" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="10"/>
+      <c r="B7" s="85"/>
       <c r="C7" s="79">
         <v>4</v>
       </c>
       <c r="D7" s="75">
         <v>4</v>
       </c>
-      <c r="E7" s="75"/>
-      <c r="F7" s="75"/>
-      <c r="G7" s="75"/>
+      <c r="E7" s="75">
+        <v>4</v>
+      </c>
+      <c r="F7" s="86">
+        <v>5</v>
+      </c>
+      <c r="G7" s="86">
+        <v>7</v>
+      </c>
       <c r="H7" s="72"/>
-      <c r="I7" s="75"/>
-      <c r="J7" s="75"/>
-      <c r="K7" s="75"/>
-      <c r="L7" s="75"/>
+      <c r="I7" s="75">
+        <v>3</v>
+      </c>
+      <c r="J7" s="75">
+        <v>1</v>
+      </c>
+      <c r="K7" s="75">
+        <v>2</v>
+      </c>
+      <c r="L7" s="75">
+        <v>1</v>
+      </c>
       <c r="M7" s="75"/>
       <c r="N7" s="75"/>
-      <c r="O7" s="75"/>
-      <c r="P7" s="75"/>
-      <c r="Q7" s="75"/>
+      <c r="O7" s="75">
+        <v>2</v>
+      </c>
+      <c r="P7" s="75">
+        <v>2</v>
+      </c>
+      <c r="Q7" s="75">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:17" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A8" s="3" t="s">
@@ -2963,46 +3049,88 @@
       <c r="D8" s="74">
         <v>4</v>
       </c>
-      <c r="E8" s="74"/>
-      <c r="F8" s="73"/>
-      <c r="G8" s="74"/>
-      <c r="H8" s="73"/>
+      <c r="E8" s="74">
+        <v>3</v>
+      </c>
+      <c r="F8" s="73">
+        <v>2</v>
+      </c>
+      <c r="G8" s="74">
+        <v>3</v>
+      </c>
+      <c r="H8" s="73">
+        <v>3</v>
+      </c>
       <c r="I8" s="72"/>
-      <c r="J8" s="74"/>
-      <c r="K8" s="74"/>
-      <c r="L8" s="74"/>
-      <c r="M8" s="74"/>
+      <c r="J8" s="74">
+        <v>5</v>
+      </c>
+      <c r="K8" s="74">
+        <v>2</v>
+      </c>
+      <c r="L8" s="74">
+        <v>4</v>
+      </c>
+      <c r="M8" s="74">
+        <v>1</v>
+      </c>
       <c r="N8" s="74"/>
-      <c r="O8" s="74"/>
-      <c r="P8" s="74"/>
-      <c r="Q8" s="74"/>
+      <c r="O8" s="74">
+        <v>2</v>
+      </c>
+      <c r="P8" s="74">
+        <v>2</v>
+      </c>
+      <c r="Q8" s="74">
+        <v>2</v>
+      </c>
     </row>
     <row r="9" spans="1:17" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B9" s="10"/>
+      <c r="A9" s="87" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="88"/>
       <c r="C9" s="79"/>
       <c r="D9" s="75"/>
       <c r="E9" s="75"/>
-      <c r="F9" s="75"/>
-      <c r="G9" s="75"/>
-      <c r="H9" s="75"/>
-      <c r="I9" s="75"/>
+      <c r="F9" s="75">
+        <v>1</v>
+      </c>
+      <c r="G9" s="75">
+        <v>2</v>
+      </c>
+      <c r="H9" s="75">
+        <v>1</v>
+      </c>
+      <c r="I9" s="75">
+        <v>5</v>
+      </c>
       <c r="J9" s="72"/>
-      <c r="K9" s="75"/>
-      <c r="L9" s="75"/>
-      <c r="M9" s="75"/>
-      <c r="N9" s="75"/>
+      <c r="K9" s="91">
+        <v>4</v>
+      </c>
+      <c r="L9" s="91">
+        <v>6</v>
+      </c>
+      <c r="M9" s="91">
+        <v>4</v>
+      </c>
+      <c r="N9" s="91">
+        <v>4</v>
+      </c>
       <c r="O9" s="75"/>
-      <c r="P9" s="75"/>
-      <c r="Q9" s="75"/>
+      <c r="P9" s="75">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="75">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:17" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A10" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B10" s="10"/>
+      <c r="A10" s="87" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" s="88"/>
       <c r="C10" s="80">
         <v>1</v>
       </c>
@@ -3010,155 +3138,255 @@
         <v>2</v>
       </c>
       <c r="E10" s="74"/>
-      <c r="F10" s="74"/>
-      <c r="G10" s="74"/>
-      <c r="H10" s="74"/>
-      <c r="I10" s="74"/>
-      <c r="J10" s="74"/>
+      <c r="F10" s="74">
+        <v>1</v>
+      </c>
+      <c r="G10" s="74">
+        <v>2</v>
+      </c>
+      <c r="H10" s="74">
+        <v>2</v>
+      </c>
+      <c r="I10" s="74">
+        <v>2</v>
+      </c>
+      <c r="J10" s="91">
+        <v>4</v>
+      </c>
       <c r="K10" s="72"/>
-      <c r="L10" s="74"/>
-      <c r="M10" s="74"/>
-      <c r="N10" s="74"/>
-      <c r="O10" s="74"/>
+      <c r="L10" s="91">
+        <v>8</v>
+      </c>
+      <c r="M10" s="91">
+        <v>2</v>
+      </c>
+      <c r="N10" s="91">
+        <v>3</v>
+      </c>
+      <c r="O10" s="74">
+        <v>1</v>
+      </c>
       <c r="P10" s="74"/>
       <c r="Q10" s="74"/>
     </row>
     <row r="11" spans="1:17" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="87" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="10"/>
+      <c r="B11" s="88"/>
       <c r="C11" s="79"/>
       <c r="D11" s="75">
         <v>1</v>
       </c>
       <c r="E11" s="75"/>
-      <c r="F11" s="75"/>
-      <c r="G11" s="75"/>
-      <c r="H11" s="75"/>
-      <c r="I11" s="75"/>
-      <c r="J11" s="75"/>
-      <c r="K11" s="75"/>
+      <c r="F11" s="75">
+        <v>1</v>
+      </c>
+      <c r="G11" s="75">
+        <v>1</v>
+      </c>
+      <c r="H11" s="75">
+        <v>1</v>
+      </c>
+      <c r="I11" s="75">
+        <v>4</v>
+      </c>
+      <c r="J11" s="91">
+        <v>6</v>
+      </c>
+      <c r="K11" s="91">
+        <v>8</v>
+      </c>
       <c r="L11" s="72"/>
-      <c r="M11" s="75"/>
-      <c r="N11" s="75"/>
-      <c r="O11" s="75"/>
+      <c r="M11" s="91">
+        <v>2</v>
+      </c>
+      <c r="N11" s="91">
+        <v>3</v>
+      </c>
+      <c r="O11" s="75">
+        <v>1</v>
+      </c>
       <c r="P11" s="75"/>
-      <c r="Q11" s="75"/>
+      <c r="Q11" s="75">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:17" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="89" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="9"/>
+      <c r="B12" s="90"/>
       <c r="C12" s="80"/>
       <c r="D12" s="74"/>
       <c r="E12" s="74"/>
       <c r="F12" s="74"/>
-      <c r="G12" s="74"/>
+      <c r="G12" s="74">
+        <v>1</v>
+      </c>
       <c r="H12" s="74"/>
-      <c r="I12" s="74"/>
-      <c r="J12" s="74"/>
-      <c r="K12" s="74"/>
-      <c r="L12" s="74"/>
+      <c r="I12" s="74">
+        <v>1</v>
+      </c>
+      <c r="J12" s="91">
+        <v>4</v>
+      </c>
+      <c r="K12" s="91">
+        <v>2</v>
+      </c>
+      <c r="L12" s="91">
+        <v>2</v>
+      </c>
       <c r="M12" s="72"/>
-      <c r="N12" s="74"/>
-      <c r="O12" s="74"/>
+      <c r="N12" s="91">
+        <v>4</v>
+      </c>
+      <c r="O12" s="74">
+        <v>1</v>
+      </c>
       <c r="P12" s="74"/>
       <c r="Q12" s="74"/>
     </row>
     <row r="13" spans="1:17" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="87" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="10"/>
+      <c r="B13" s="88"/>
       <c r="C13" s="79"/>
       <c r="D13" s="75"/>
       <c r="E13" s="75"/>
       <c r="F13" s="75"/>
-      <c r="G13" s="75"/>
+      <c r="G13" s="75">
+        <v>1</v>
+      </c>
       <c r="H13" s="75"/>
       <c r="I13" s="75"/>
-      <c r="J13" s="75"/>
-      <c r="K13" s="75"/>
-      <c r="L13" s="75"/>
-      <c r="M13" s="75"/>
+      <c r="J13" s="91">
+        <v>4</v>
+      </c>
+      <c r="K13" s="91">
+        <v>3</v>
+      </c>
+      <c r="L13" s="91">
+        <v>3</v>
+      </c>
+      <c r="M13" s="91">
+        <v>4</v>
+      </c>
       <c r="N13" s="72"/>
       <c r="O13" s="75"/>
       <c r="P13" s="75"/>
       <c r="Q13" s="75"/>
     </row>
     <row r="14" spans="1:17" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="9"/>
+      <c r="B14" s="32"/>
       <c r="C14" s="80">
         <v>2</v>
       </c>
       <c r="D14" s="74">
         <v>3</v>
       </c>
-      <c r="E14" s="74"/>
+      <c r="E14" s="74">
+        <v>2</v>
+      </c>
       <c r="F14" s="74"/>
-      <c r="G14" s="74"/>
-      <c r="H14" s="74"/>
-      <c r="I14" s="74"/>
+      <c r="G14" s="74">
+        <v>2</v>
+      </c>
+      <c r="H14" s="74">
+        <v>2</v>
+      </c>
+      <c r="I14" s="74">
+        <v>2</v>
+      </c>
       <c r="J14" s="74"/>
-      <c r="K14" s="74"/>
-      <c r="L14" s="74"/>
-      <c r="M14" s="74"/>
+      <c r="K14" s="74">
+        <v>1</v>
+      </c>
+      <c r="L14" s="74">
+        <v>1</v>
+      </c>
+      <c r="M14" s="74">
+        <v>1</v>
+      </c>
       <c r="N14" s="74"/>
       <c r="O14" s="72"/>
-      <c r="P14" s="74"/>
-      <c r="Q14" s="74"/>
+      <c r="P14" s="92"/>
+      <c r="Q14" s="92">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="1:17" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="10"/>
+      <c r="B15" s="30"/>
       <c r="C15" s="79" t="s">
         <v>34</v>
       </c>
       <c r="D15" s="75"/>
       <c r="E15" s="75"/>
-      <c r="F15" s="75"/>
-      <c r="G15" s="75"/>
-      <c r="H15" s="75"/>
-      <c r="I15" s="75"/>
-      <c r="J15" s="75"/>
+      <c r="F15" s="75">
+        <v>2</v>
+      </c>
+      <c r="G15" s="75">
+        <v>2</v>
+      </c>
+      <c r="H15" s="75">
+        <v>2</v>
+      </c>
+      <c r="I15" s="75">
+        <v>2</v>
+      </c>
+      <c r="J15" s="75">
+        <v>1</v>
+      </c>
       <c r="K15" s="75"/>
       <c r="L15" s="75"/>
       <c r="M15" s="75"/>
       <c r="N15" s="75"/>
-      <c r="O15" s="75"/>
+      <c r="O15" s="92"/>
       <c r="P15" s="72"/>
-      <c r="Q15" s="75"/>
+      <c r="Q15" s="92"/>
     </row>
     <row r="16" spans="1:17" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="B16" s="9"/>
+      <c r="B16" s="32"/>
       <c r="C16" s="80">
         <v>2</v>
       </c>
       <c r="D16" s="74">
         <v>2</v>
       </c>
-      <c r="E16" s="74"/>
+      <c r="E16" s="74">
+        <v>1</v>
+      </c>
       <c r="F16" s="74"/>
       <c r="G16" s="74"/>
-      <c r="H16" s="74"/>
-      <c r="I16" s="74"/>
-      <c r="J16" s="74"/>
+      <c r="H16" s="74">
+        <v>1</v>
+      </c>
+      <c r="I16" s="74">
+        <v>2</v>
+      </c>
+      <c r="J16" s="74">
+        <v>1</v>
+      </c>
       <c r="K16" s="74"/>
-      <c r="L16" s="74"/>
+      <c r="L16" s="74">
+        <v>1</v>
+      </c>
       <c r="M16" s="74"/>
       <c r="N16" s="74"/>
-      <c r="O16" s="74"/>
-      <c r="P16" s="74"/>
+      <c r="O16" s="92">
+        <v>1</v>
+      </c>
+      <c r="P16" s="92"/>
       <c r="Q16" s="72"/>
     </row>
   </sheetData>
